--- a/TNR_PREJDD/RO/PREJDD.RO.CAT.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.CAT.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg7op8ws/q6bzUMax1O2uPB8BpsOA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mirWVt35iVDrayk20e6EPDK592+bA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -181,7 +181,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +218,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -245,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -281,9 +275,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2248,3953 +2239,3924 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="10">
-        <v>310.0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>410.0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>510.0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>610.0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>710.0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="I29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="18"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="18"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="18"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="18"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="18"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="18"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="A44" s="18"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="18"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="18"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="I49" s="20"/>
+      <c r="A49" s="18"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="18"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="I52" s="20"/>
+      <c r="A52" s="18"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="I53" s="20"/>
+      <c r="A53" s="18"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="I54" s="20"/>
+      <c r="A54" s="18"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="18"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="18"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="18"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="18"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="I59" s="20"/>
+      <c r="A59" s="18"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="18"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="I61" s="20"/>
+      <c r="A61" s="18"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="I62" s="20"/>
+      <c r="A62" s="18"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="I63" s="20"/>
+      <c r="A63" s="18"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="I64" s="20"/>
+      <c r="A64" s="18"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="I65" s="20"/>
+      <c r="A65" s="18"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="I66" s="20"/>
+      <c r="A66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="I67" s="20"/>
+      <c r="A67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="A68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="19"/>
-      <c r="I69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="I70" s="20"/>
+      <c r="A70" s="18"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="I71" s="20"/>
+      <c r="A71" s="18"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="I72" s="20"/>
+      <c r="A72" s="18"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="18"/>
+      <c r="I73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="I74" s="20"/>
+      <c r="A74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="18"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="I76" s="20"/>
+      <c r="A76" s="18"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="18"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="18"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="I79" s="20"/>
+      <c r="A79" s="18"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="I80" s="20"/>
+      <c r="A80" s="18"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="A81" s="18"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="I82" s="20"/>
+      <c r="A82" s="18"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="I83" s="20"/>
+      <c r="A83" s="18"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="19"/>
-      <c r="I84" s="20"/>
+      <c r="A84" s="18"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="I85" s="20"/>
+      <c r="A85" s="18"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="I86" s="20"/>
+      <c r="A86" s="18"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="I87" s="20"/>
+      <c r="A87" s="18"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="19"/>
-      <c r="I88" s="20"/>
+      <c r="A88" s="18"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="I89" s="20"/>
+      <c r="A89" s="18"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="I90" s="20"/>
+      <c r="A90" s="18"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="19"/>
-      <c r="I91" s="20"/>
+      <c r="A91" s="18"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="19"/>
-      <c r="I92" s="20"/>
+      <c r="A92" s="18"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="19"/>
-      <c r="I93" s="20"/>
+      <c r="A93" s="18"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="19"/>
-      <c r="I94" s="20"/>
+      <c r="A94" s="18"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="19"/>
-      <c r="I95" s="20"/>
+      <c r="A95" s="18"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="A96" s="18"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="19"/>
-      <c r="I97" s="20"/>
+      <c r="A97" s="18"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="19"/>
-      <c r="I98" s="20"/>
+      <c r="A98" s="18"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="19"/>
-      <c r="I99" s="20"/>
+      <c r="A99" s="18"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="19"/>
-      <c r="I100" s="20"/>
+      <c r="A100" s="18"/>
+      <c r="I100" s="19"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="19"/>
-      <c r="I101" s="20"/>
+      <c r="A101" s="18"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="19"/>
-      <c r="I102" s="20"/>
+      <c r="A102" s="18"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="19"/>
-      <c r="I103" s="20"/>
+      <c r="A103" s="18"/>
+      <c r="I103" s="19"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="19"/>
-      <c r="I104" s="20"/>
+      <c r="A104" s="18"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="19"/>
-      <c r="I105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="19"/>
-      <c r="I106" s="20"/>
+      <c r="A106" s="18"/>
+      <c r="I106" s="19"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="19"/>
-      <c r="I107" s="20"/>
+      <c r="A107" s="18"/>
+      <c r="I107" s="19"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="19"/>
-      <c r="I108" s="20"/>
+      <c r="A108" s="18"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="19"/>
-      <c r="I109" s="20"/>
+      <c r="A109" s="18"/>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="19"/>
-      <c r="I110" s="20"/>
+      <c r="A110" s="18"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="19"/>
-      <c r="I111" s="20"/>
+      <c r="A111" s="18"/>
+      <c r="I111" s="19"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="19"/>
-      <c r="I112" s="20"/>
+      <c r="A112" s="18"/>
+      <c r="I112" s="19"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="A113" s="18"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="19"/>
-      <c r="I114" s="20"/>
+      <c r="A114" s="18"/>
+      <c r="I114" s="19"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="19"/>
-      <c r="I115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="19"/>
-      <c r="I116" s="20"/>
+      <c r="A116" s="18"/>
+      <c r="I116" s="19"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="19"/>
-      <c r="I117" s="20"/>
+      <c r="A117" s="18"/>
+      <c r="I117" s="19"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="19"/>
-      <c r="I118" s="20"/>
+      <c r="A118" s="18"/>
+      <c r="I118" s="19"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="19"/>
-      <c r="I119" s="20"/>
+      <c r="A119" s="18"/>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="19"/>
-      <c r="I120" s="20"/>
+      <c r="A120" s="18"/>
+      <c r="I120" s="19"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="19"/>
-      <c r="I121" s="20"/>
+      <c r="A121" s="18"/>
+      <c r="I121" s="19"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="19"/>
-      <c r="I122" s="20"/>
+      <c r="A122" s="18"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="19"/>
-      <c r="I123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="19"/>
-      <c r="I124" s="20"/>
+      <c r="A124" s="18"/>
+      <c r="I124" s="19"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="19"/>
-      <c r="I125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="I125" s="19"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="19"/>
-      <c r="I126" s="20"/>
+      <c r="A126" s="18"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="19"/>
-      <c r="I127" s="20"/>
+      <c r="A127" s="18"/>
+      <c r="I127" s="19"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="19"/>
-      <c r="I128" s="20"/>
+      <c r="A128" s="18"/>
+      <c r="I128" s="19"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="19"/>
-      <c r="I129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="I129" s="19"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="19"/>
-      <c r="I130" s="20"/>
+      <c r="A130" s="18"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="19"/>
-      <c r="I131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="19"/>
-      <c r="I132" s="20"/>
+      <c r="A132" s="18"/>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="19"/>
-      <c r="I133" s="20"/>
+      <c r="A133" s="18"/>
+      <c r="I133" s="19"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="19"/>
-      <c r="I134" s="20"/>
+      <c r="A134" s="18"/>
+      <c r="I134" s="19"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="19"/>
-      <c r="I135" s="20"/>
+      <c r="A135" s="18"/>
+      <c r="I135" s="19"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="19"/>
-      <c r="I136" s="20"/>
+      <c r="A136" s="18"/>
+      <c r="I136" s="19"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="19"/>
-      <c r="I137" s="20"/>
+      <c r="A137" s="18"/>
+      <c r="I137" s="19"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="19"/>
-      <c r="I138" s="20"/>
+      <c r="A138" s="18"/>
+      <c r="I138" s="19"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="19"/>
-      <c r="I139" s="20"/>
+      <c r="A139" s="18"/>
+      <c r="I139" s="19"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="19"/>
-      <c r="I140" s="20"/>
+      <c r="A140" s="18"/>
+      <c r="I140" s="19"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="I141" s="20"/>
+      <c r="A141" s="18"/>
+      <c r="I141" s="19"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="I142" s="20"/>
+      <c r="A142" s="18"/>
+      <c r="I142" s="19"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="19"/>
-      <c r="I143" s="20"/>
+      <c r="A143" s="18"/>
+      <c r="I143" s="19"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="19"/>
-      <c r="I144" s="20"/>
+      <c r="A144" s="18"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="19"/>
-      <c r="I145" s="20"/>
+      <c r="A145" s="18"/>
+      <c r="I145" s="19"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="19"/>
-      <c r="I146" s="20"/>
+      <c r="A146" s="18"/>
+      <c r="I146" s="19"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="19"/>
-      <c r="I147" s="20"/>
+      <c r="A147" s="18"/>
+      <c r="I147" s="19"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="I148" s="20"/>
+      <c r="A148" s="18"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="19"/>
-      <c r="I149" s="20"/>
+      <c r="A149" s="18"/>
+      <c r="I149" s="19"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="19"/>
-      <c r="I150" s="20"/>
+      <c r="A150" s="18"/>
+      <c r="I150" s="19"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="19"/>
-      <c r="I151" s="20"/>
+      <c r="A151" s="18"/>
+      <c r="I151" s="19"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="19"/>
-      <c r="I152" s="20"/>
+      <c r="A152" s="18"/>
+      <c r="I152" s="19"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="A153" s="18"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="19"/>
-      <c r="I154" s="20"/>
+      <c r="A154" s="18"/>
+      <c r="I154" s="19"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="19"/>
-      <c r="I155" s="20"/>
+      <c r="A155" s="18"/>
+      <c r="I155" s="19"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="19"/>
-      <c r="I156" s="20"/>
+      <c r="A156" s="18"/>
+      <c r="I156" s="19"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="19"/>
-      <c r="I157" s="20"/>
+      <c r="A157" s="18"/>
+      <c r="I157" s="19"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="19"/>
-      <c r="I158" s="20"/>
+      <c r="A158" s="18"/>
+      <c r="I158" s="19"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="19"/>
-      <c r="I159" s="20"/>
+      <c r="A159" s="18"/>
+      <c r="I159" s="19"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="19"/>
-      <c r="I160" s="20"/>
+      <c r="A160" s="18"/>
+      <c r="I160" s="19"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="19"/>
-      <c r="I161" s="20"/>
+      <c r="A161" s="18"/>
+      <c r="I161" s="19"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="19"/>
-      <c r="I162" s="20"/>
+      <c r="A162" s="18"/>
+      <c r="I162" s="19"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="A163" s="18"/>
+      <c r="I163" s="19"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="19"/>
-      <c r="I164" s="20"/>
+      <c r="A164" s="18"/>
+      <c r="I164" s="19"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="19"/>
-      <c r="I165" s="20"/>
+      <c r="A165" s="18"/>
+      <c r="I165" s="19"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="19"/>
-      <c r="I166" s="20"/>
+      <c r="A166" s="18"/>
+      <c r="I166" s="19"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="19"/>
-      <c r="I167" s="20"/>
+      <c r="A167" s="18"/>
+      <c r="I167" s="19"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="19"/>
-      <c r="I168" s="20"/>
+      <c r="A168" s="18"/>
+      <c r="I168" s="19"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="19"/>
-      <c r="I169" s="20"/>
+      <c r="A169" s="18"/>
+      <c r="I169" s="19"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="19"/>
-      <c r="I170" s="20"/>
+      <c r="A170" s="18"/>
+      <c r="I170" s="19"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="19"/>
-      <c r="I171" s="20"/>
+      <c r="A171" s="18"/>
+      <c r="I171" s="19"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="19"/>
-      <c r="I172" s="20"/>
+      <c r="A172" s="18"/>
+      <c r="I172" s="19"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="19"/>
-      <c r="I173" s="20"/>
+      <c r="A173" s="18"/>
+      <c r="I173" s="19"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="19"/>
-      <c r="I174" s="20"/>
+      <c r="A174" s="18"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="19"/>
-      <c r="I175" s="20"/>
+      <c r="A175" s="18"/>
+      <c r="I175" s="19"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="19"/>
-      <c r="I176" s="20"/>
+      <c r="A176" s="18"/>
+      <c r="I176" s="19"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="19"/>
-      <c r="I177" s="20"/>
+      <c r="A177" s="18"/>
+      <c r="I177" s="19"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="19"/>
-      <c r="I178" s="20"/>
+      <c r="A178" s="18"/>
+      <c r="I178" s="19"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="19"/>
-      <c r="I179" s="20"/>
+      <c r="A179" s="18"/>
+      <c r="I179" s="19"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="A180" s="18"/>
+      <c r="I180" s="19"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="19"/>
-      <c r="I181" s="20"/>
+      <c r="A181" s="18"/>
+      <c r="I181" s="19"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="19"/>
-      <c r="I182" s="20"/>
+      <c r="A182" s="18"/>
+      <c r="I182" s="19"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="19"/>
-      <c r="I183" s="20"/>
+      <c r="A183" s="18"/>
+      <c r="I183" s="19"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="19"/>
-      <c r="I184" s="20"/>
+      <c r="A184" s="18"/>
+      <c r="I184" s="19"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="19"/>
-      <c r="I185" s="20"/>
+      <c r="A185" s="18"/>
+      <c r="I185" s="19"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="19"/>
-      <c r="I186" s="20"/>
+      <c r="A186" s="18"/>
+      <c r="I186" s="19"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="19"/>
-      <c r="I187" s="20"/>
+      <c r="A187" s="18"/>
+      <c r="I187" s="19"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="19"/>
-      <c r="I188" s="20"/>
+      <c r="A188" s="18"/>
+      <c r="I188" s="19"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="19"/>
-      <c r="I189" s="20"/>
+      <c r="A189" s="18"/>
+      <c r="I189" s="19"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="19"/>
-      <c r="I190" s="20"/>
+      <c r="A190" s="18"/>
+      <c r="I190" s="19"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="19"/>
-      <c r="I191" s="20"/>
+      <c r="A191" s="18"/>
+      <c r="I191" s="19"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="19"/>
-      <c r="I192" s="20"/>
+      <c r="A192" s="18"/>
+      <c r="I192" s="19"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="19"/>
-      <c r="I193" s="20"/>
+      <c r="A193" s="18"/>
+      <c r="I193" s="19"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="19"/>
-      <c r="I194" s="20"/>
+      <c r="A194" s="18"/>
+      <c r="I194" s="19"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="19"/>
-      <c r="I195" s="20"/>
+      <c r="A195" s="18"/>
+      <c r="I195" s="19"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="19"/>
-      <c r="I196" s="20"/>
+      <c r="A196" s="18"/>
+      <c r="I196" s="19"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="19"/>
-      <c r="I197" s="20"/>
+      <c r="A197" s="18"/>
+      <c r="I197" s="19"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="19"/>
-      <c r="I198" s="20"/>
+      <c r="A198" s="18"/>
+      <c r="I198" s="19"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="19"/>
-      <c r="I199" s="20"/>
+      <c r="A199" s="18"/>
+      <c r="I199" s="19"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="19"/>
-      <c r="I200" s="20"/>
+      <c r="A200" s="18"/>
+      <c r="I200" s="19"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="19"/>
-      <c r="I201" s="20"/>
+      <c r="A201" s="18"/>
+      <c r="I201" s="19"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="19"/>
-      <c r="I202" s="20"/>
+      <c r="A202" s="18"/>
+      <c r="I202" s="19"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="A203" s="18"/>
+      <c r="I203" s="19"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="19"/>
-      <c r="I204" s="20"/>
+      <c r="A204" s="18"/>
+      <c r="I204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="19"/>
-      <c r="I205" s="20"/>
+      <c r="A205" s="18"/>
+      <c r="I205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="19"/>
-      <c r="I206" s="20"/>
+      <c r="A206" s="18"/>
+      <c r="I206" s="19"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="19"/>
-      <c r="I207" s="20"/>
+      <c r="A207" s="18"/>
+      <c r="I207" s="19"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="19"/>
-      <c r="I208" s="20"/>
+      <c r="A208" s="18"/>
+      <c r="I208" s="19"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="19"/>
-      <c r="I209" s="20"/>
+      <c r="A209" s="18"/>
+      <c r="I209" s="19"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="19"/>
-      <c r="I210" s="20"/>
+      <c r="A210" s="18"/>
+      <c r="I210" s="19"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="19"/>
-      <c r="I211" s="20"/>
+      <c r="A211" s="18"/>
+      <c r="I211" s="19"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="19"/>
-      <c r="I212" s="20"/>
+      <c r="A212" s="18"/>
+      <c r="I212" s="19"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="19"/>
-      <c r="I213" s="20"/>
+      <c r="A213" s="18"/>
+      <c r="I213" s="19"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="19"/>
-      <c r="I214" s="20"/>
+      <c r="A214" s="18"/>
+      <c r="I214" s="19"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="19"/>
-      <c r="I215" s="20"/>
+      <c r="A215" s="18"/>
+      <c r="I215" s="19"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="19"/>
-      <c r="I216" s="20"/>
+      <c r="A216" s="18"/>
+      <c r="I216" s="19"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="19"/>
-      <c r="I217" s="20"/>
+      <c r="A217" s="18"/>
+      <c r="I217" s="19"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="19"/>
-      <c r="I218" s="20"/>
+      <c r="A218" s="18"/>
+      <c r="I218" s="19"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="A219" s="18"/>
+      <c r="I219" s="19"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="19"/>
-      <c r="I220" s="20"/>
+      <c r="A220" s="18"/>
+      <c r="I220" s="19"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="19"/>
-      <c r="I221" s="20"/>
+      <c r="A221" s="18"/>
+      <c r="I221" s="19"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="19"/>
-      <c r="I222" s="20"/>
+      <c r="A222" s="18"/>
+      <c r="I222" s="19"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="19"/>
-      <c r="I223" s="20"/>
+      <c r="A223" s="18"/>
+      <c r="I223" s="19"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="19"/>
-      <c r="I224" s="20"/>
+      <c r="A224" s="18"/>
+      <c r="I224" s="19"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="19"/>
-      <c r="I225" s="20"/>
+      <c r="A225" s="18"/>
+      <c r="I225" s="19"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="19"/>
-      <c r="I226" s="20"/>
+      <c r="A226" s="18"/>
+      <c r="I226" s="19"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="19"/>
-      <c r="I227" s="20"/>
+      <c r="A227" s="18"/>
+      <c r="I227" s="19"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="19"/>
-      <c r="I228" s="20"/>
+      <c r="A228" s="18"/>
+      <c r="I228" s="19"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="19"/>
-      <c r="I229" s="20"/>
+      <c r="A229" s="18"/>
+      <c r="I229" s="19"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="19"/>
-      <c r="I230" s="20"/>
+      <c r="A230" s="18"/>
+      <c r="I230" s="19"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="19"/>
-      <c r="I231" s="20"/>
+      <c r="A231" s="18"/>
+      <c r="I231" s="19"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="19"/>
-      <c r="I232" s="20"/>
+      <c r="A232" s="18"/>
+      <c r="I232" s="19"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="19"/>
-      <c r="I233" s="20"/>
+      <c r="A233" s="18"/>
+      <c r="I233" s="19"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="19"/>
-      <c r="I234" s="20"/>
+      <c r="A234" s="18"/>
+      <c r="I234" s="19"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="19"/>
-      <c r="I235" s="20"/>
+      <c r="A235" s="18"/>
+      <c r="I235" s="19"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="19"/>
-      <c r="I236" s="20"/>
+      <c r="A236" s="18"/>
+      <c r="I236" s="19"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="19"/>
-      <c r="I237" s="20"/>
+      <c r="A237" s="18"/>
+      <c r="I237" s="19"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="19"/>
-      <c r="I238" s="20"/>
+      <c r="A238" s="18"/>
+      <c r="I238" s="19"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="19"/>
-      <c r="I239" s="20"/>
+      <c r="A239" s="18"/>
+      <c r="I239" s="19"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="19"/>
-      <c r="I240" s="20"/>
+      <c r="A240" s="18"/>
+      <c r="I240" s="19"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="19"/>
-      <c r="I241" s="20"/>
+      <c r="A241" s="18"/>
+      <c r="I241" s="19"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="19"/>
-      <c r="I242" s="20"/>
+      <c r="A242" s="18"/>
+      <c r="I242" s="19"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="19"/>
-      <c r="I243" s="20"/>
+      <c r="A243" s="18"/>
+      <c r="I243" s="19"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="19"/>
-      <c r="I244" s="20"/>
+      <c r="A244" s="18"/>
+      <c r="I244" s="19"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="19"/>
-      <c r="I245" s="20"/>
+      <c r="A245" s="18"/>
+      <c r="I245" s="19"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="19"/>
-      <c r="I246" s="20"/>
+      <c r="A246" s="18"/>
+      <c r="I246" s="19"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="19"/>
-      <c r="I247" s="20"/>
+      <c r="A247" s="18"/>
+      <c r="I247" s="19"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="19"/>
-      <c r="I248" s="20"/>
+      <c r="A248" s="18"/>
+      <c r="I248" s="19"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="19"/>
-      <c r="I249" s="20"/>
+      <c r="A249" s="18"/>
+      <c r="I249" s="19"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="19"/>
-      <c r="I250" s="20"/>
+      <c r="A250" s="18"/>
+      <c r="I250" s="19"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="19"/>
-      <c r="I251" s="20"/>
+      <c r="A251" s="18"/>
+      <c r="I251" s="19"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="19"/>
-      <c r="I252" s="20"/>
+      <c r="A252" s="18"/>
+      <c r="I252" s="19"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="19"/>
-      <c r="I253" s="20"/>
+      <c r="A253" s="18"/>
+      <c r="I253" s="19"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="19"/>
-      <c r="I254" s="20"/>
+      <c r="A254" s="18"/>
+      <c r="I254" s="19"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="19"/>
-      <c r="I255" s="20"/>
+      <c r="A255" s="18"/>
+      <c r="I255" s="19"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="19"/>
-      <c r="I256" s="20"/>
+      <c r="A256" s="18"/>
+      <c r="I256" s="19"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="19"/>
-      <c r="I257" s="20"/>
+      <c r="A257" s="18"/>
+      <c r="I257" s="19"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="19"/>
-      <c r="I258" s="20"/>
+      <c r="A258" s="18"/>
+      <c r="I258" s="19"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="19"/>
-      <c r="I259" s="20"/>
+      <c r="A259" s="18"/>
+      <c r="I259" s="19"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="19"/>
-      <c r="I260" s="20"/>
+      <c r="A260" s="18"/>
+      <c r="I260" s="19"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="19"/>
-      <c r="I261" s="20"/>
+      <c r="A261" s="18"/>
+      <c r="I261" s="19"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="19"/>
-      <c r="I262" s="20"/>
+      <c r="A262" s="18"/>
+      <c r="I262" s="19"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="19"/>
-      <c r="I263" s="20"/>
+      <c r="A263" s="18"/>
+      <c r="I263" s="19"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="19"/>
-      <c r="I264" s="20"/>
+      <c r="A264" s="18"/>
+      <c r="I264" s="19"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="19"/>
-      <c r="I265" s="20"/>
+      <c r="A265" s="18"/>
+      <c r="I265" s="19"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="19"/>
-      <c r="I266" s="20"/>
+      <c r="A266" s="18"/>
+      <c r="I266" s="19"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="19"/>
-      <c r="I267" s="20"/>
+      <c r="A267" s="18"/>
+      <c r="I267" s="19"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="19"/>
-      <c r="I268" s="20"/>
+      <c r="A268" s="18"/>
+      <c r="I268" s="19"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="19"/>
-      <c r="I269" s="20"/>
+      <c r="A269" s="18"/>
+      <c r="I269" s="19"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="19"/>
-      <c r="I270" s="20"/>
+      <c r="A270" s="18"/>
+      <c r="I270" s="19"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="19"/>
-      <c r="I271" s="20"/>
+      <c r="A271" s="18"/>
+      <c r="I271" s="19"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="19"/>
-      <c r="I272" s="20"/>
+      <c r="A272" s="18"/>
+      <c r="I272" s="19"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="19"/>
-      <c r="I273" s="20"/>
+      <c r="A273" s="18"/>
+      <c r="I273" s="19"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="19"/>
-      <c r="I274" s="20"/>
+      <c r="A274" s="18"/>
+      <c r="I274" s="19"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="19"/>
-      <c r="I275" s="20"/>
+      <c r="A275" s="18"/>
+      <c r="I275" s="19"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="19"/>
-      <c r="I276" s="20"/>
+      <c r="A276" s="18"/>
+      <c r="I276" s="19"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="19"/>
-      <c r="I277" s="20"/>
+      <c r="A277" s="18"/>
+      <c r="I277" s="19"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="19"/>
-      <c r="I278" s="20"/>
+      <c r="A278" s="18"/>
+      <c r="I278" s="19"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="19"/>
-      <c r="I279" s="20"/>
+      <c r="A279" s="18"/>
+      <c r="I279" s="19"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="19"/>
-      <c r="I280" s="20"/>
+      <c r="A280" s="18"/>
+      <c r="I280" s="19"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="19"/>
-      <c r="I281" s="20"/>
+      <c r="A281" s="18"/>
+      <c r="I281" s="19"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="19"/>
-      <c r="I282" s="20"/>
+      <c r="A282" s="18"/>
+      <c r="I282" s="19"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="19"/>
-      <c r="I283" s="20"/>
+      <c r="A283" s="18"/>
+      <c r="I283" s="19"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="19"/>
-      <c r="I284" s="20"/>
+      <c r="A284" s="18"/>
+      <c r="I284" s="19"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="19"/>
-      <c r="I285" s="20"/>
+      <c r="A285" s="18"/>
+      <c r="I285" s="19"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="19"/>
-      <c r="I286" s="20"/>
+      <c r="A286" s="18"/>
+      <c r="I286" s="19"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="19"/>
-      <c r="I287" s="20"/>
+      <c r="A287" s="18"/>
+      <c r="I287" s="19"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="19"/>
-      <c r="I288" s="20"/>
+      <c r="A288" s="18"/>
+      <c r="I288" s="19"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="19"/>
-      <c r="I289" s="20"/>
+      <c r="A289" s="18"/>
+      <c r="I289" s="19"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="19"/>
-      <c r="I290" s="20"/>
+      <c r="A290" s="18"/>
+      <c r="I290" s="19"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="19"/>
-      <c r="I291" s="20"/>
+      <c r="A291" s="18"/>
+      <c r="I291" s="19"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="19"/>
-      <c r="I292" s="20"/>
+      <c r="A292" s="18"/>
+      <c r="I292" s="19"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="19"/>
-      <c r="I293" s="20"/>
+      <c r="A293" s="18"/>
+      <c r="I293" s="19"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="19"/>
-      <c r="I294" s="20"/>
+      <c r="A294" s="18"/>
+      <c r="I294" s="19"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="19"/>
-      <c r="I295" s="20"/>
+      <c r="A295" s="18"/>
+      <c r="I295" s="19"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="19"/>
-      <c r="I296" s="20"/>
+      <c r="A296" s="18"/>
+      <c r="I296" s="19"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="19"/>
-      <c r="I297" s="20"/>
+      <c r="A297" s="18"/>
+      <c r="I297" s="19"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="19"/>
-      <c r="I298" s="20"/>
+      <c r="A298" s="18"/>
+      <c r="I298" s="19"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="19"/>
-      <c r="I299" s="20"/>
+      <c r="A299" s="18"/>
+      <c r="I299" s="19"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="19"/>
-      <c r="I300" s="20"/>
+      <c r="A300" s="18"/>
+      <c r="I300" s="19"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="19"/>
-      <c r="I301" s="20"/>
+      <c r="A301" s="18"/>
+      <c r="I301" s="19"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="19"/>
-      <c r="I302" s="20"/>
+      <c r="A302" s="18"/>
+      <c r="I302" s="19"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="19"/>
-      <c r="I303" s="20"/>
+      <c r="A303" s="18"/>
+      <c r="I303" s="19"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="19"/>
-      <c r="I304" s="20"/>
+      <c r="A304" s="18"/>
+      <c r="I304" s="19"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="19"/>
-      <c r="I305" s="20"/>
+      <c r="A305" s="18"/>
+      <c r="I305" s="19"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="19"/>
-      <c r="I306" s="20"/>
+      <c r="A306" s="18"/>
+      <c r="I306" s="19"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="19"/>
-      <c r="I307" s="20"/>
+      <c r="A307" s="18"/>
+      <c r="I307" s="19"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="19"/>
-      <c r="I308" s="20"/>
+      <c r="A308" s="18"/>
+      <c r="I308" s="19"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="19"/>
-      <c r="I309" s="20"/>
+      <c r="A309" s="18"/>
+      <c r="I309" s="19"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="19"/>
-      <c r="I310" s="20"/>
+      <c r="A310" s="18"/>
+      <c r="I310" s="19"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="19"/>
-      <c r="I311" s="20"/>
+      <c r="A311" s="18"/>
+      <c r="I311" s="19"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="19"/>
-      <c r="I312" s="20"/>
+      <c r="A312" s="18"/>
+      <c r="I312" s="19"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="19"/>
-      <c r="I313" s="20"/>
+      <c r="A313" s="18"/>
+      <c r="I313" s="19"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="19"/>
-      <c r="I314" s="20"/>
+      <c r="A314" s="18"/>
+      <c r="I314" s="19"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="19"/>
-      <c r="I315" s="20"/>
+      <c r="A315" s="18"/>
+      <c r="I315" s="19"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="19"/>
-      <c r="I316" s="20"/>
+      <c r="A316" s="18"/>
+      <c r="I316" s="19"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="19"/>
-      <c r="I317" s="20"/>
+      <c r="A317" s="18"/>
+      <c r="I317" s="19"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="19"/>
-      <c r="I318" s="20"/>
+      <c r="A318" s="18"/>
+      <c r="I318" s="19"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="19"/>
-      <c r="I319" s="20"/>
+      <c r="A319" s="18"/>
+      <c r="I319" s="19"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="19"/>
-      <c r="I320" s="20"/>
+      <c r="A320" s="18"/>
+      <c r="I320" s="19"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="19"/>
-      <c r="I321" s="20"/>
+      <c r="A321" s="18"/>
+      <c r="I321" s="19"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="19"/>
-      <c r="I322" s="20"/>
+      <c r="A322" s="18"/>
+      <c r="I322" s="19"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="19"/>
-      <c r="I323" s="20"/>
+      <c r="A323" s="18"/>
+      <c r="I323" s="19"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="19"/>
-      <c r="I324" s="20"/>
+      <c r="A324" s="18"/>
+      <c r="I324" s="19"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="19"/>
-      <c r="I325" s="20"/>
+      <c r="A325" s="18"/>
+      <c r="I325" s="19"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="19"/>
-      <c r="I326" s="20"/>
+      <c r="A326" s="18"/>
+      <c r="I326" s="19"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="19"/>
-      <c r="I327" s="20"/>
+      <c r="A327" s="18"/>
+      <c r="I327" s="19"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="19"/>
-      <c r="I328" s="20"/>
+      <c r="A328" s="18"/>
+      <c r="I328" s="19"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="19"/>
-      <c r="I329" s="20"/>
+      <c r="A329" s="18"/>
+      <c r="I329" s="19"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="19"/>
-      <c r="I330" s="20"/>
+      <c r="A330" s="18"/>
+      <c r="I330" s="19"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="19"/>
-      <c r="I331" s="20"/>
+      <c r="A331" s="18"/>
+      <c r="I331" s="19"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="19"/>
-      <c r="I332" s="20"/>
+      <c r="A332" s="18"/>
+      <c r="I332" s="19"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="19"/>
-      <c r="I333" s="20"/>
+      <c r="A333" s="18"/>
+      <c r="I333" s="19"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="19"/>
-      <c r="I334" s="20"/>
+      <c r="A334" s="18"/>
+      <c r="I334" s="19"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="19"/>
-      <c r="I335" s="20"/>
+      <c r="A335" s="18"/>
+      <c r="I335" s="19"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="19"/>
-      <c r="I336" s="20"/>
+      <c r="A336" s="18"/>
+      <c r="I336" s="19"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="19"/>
-      <c r="I337" s="20"/>
+      <c r="A337" s="18"/>
+      <c r="I337" s="19"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="19"/>
-      <c r="I338" s="20"/>
+      <c r="A338" s="18"/>
+      <c r="I338" s="19"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="19"/>
-      <c r="I339" s="20"/>
+      <c r="A339" s="18"/>
+      <c r="I339" s="19"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="19"/>
-      <c r="I340" s="20"/>
+      <c r="A340" s="18"/>
+      <c r="I340" s="19"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="19"/>
-      <c r="I341" s="20"/>
+      <c r="A341" s="18"/>
+      <c r="I341" s="19"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="19"/>
-      <c r="I342" s="20"/>
+      <c r="A342" s="18"/>
+      <c r="I342" s="19"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="19"/>
-      <c r="I343" s="20"/>
+      <c r="A343" s="18"/>
+      <c r="I343" s="19"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="19"/>
-      <c r="I344" s="20"/>
+      <c r="A344" s="18"/>
+      <c r="I344" s="19"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="19"/>
-      <c r="I345" s="20"/>
+      <c r="A345" s="18"/>
+      <c r="I345" s="19"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="19"/>
-      <c r="I346" s="20"/>
+      <c r="A346" s="18"/>
+      <c r="I346" s="19"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="19"/>
-      <c r="I347" s="20"/>
+      <c r="A347" s="18"/>
+      <c r="I347" s="19"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="19"/>
-      <c r="I348" s="20"/>
+      <c r="A348" s="18"/>
+      <c r="I348" s="19"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="19"/>
-      <c r="I349" s="20"/>
+      <c r="A349" s="18"/>
+      <c r="I349" s="19"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="19"/>
-      <c r="I350" s="20"/>
+      <c r="A350" s="18"/>
+      <c r="I350" s="19"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="19"/>
-      <c r="I351" s="20"/>
+      <c r="A351" s="18"/>
+      <c r="I351" s="19"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="19"/>
-      <c r="I352" s="20"/>
+      <c r="A352" s="18"/>
+      <c r="I352" s="19"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="19"/>
-      <c r="I353" s="20"/>
+      <c r="A353" s="18"/>
+      <c r="I353" s="19"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="19"/>
-      <c r="I354" s="20"/>
+      <c r="A354" s="18"/>
+      <c r="I354" s="19"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="19"/>
-      <c r="I355" s="20"/>
+      <c r="A355" s="18"/>
+      <c r="I355" s="19"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="19"/>
-      <c r="I356" s="20"/>
+      <c r="A356" s="18"/>
+      <c r="I356" s="19"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="19"/>
-      <c r="I357" s="20"/>
+      <c r="A357" s="18"/>
+      <c r="I357" s="19"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="19"/>
-      <c r="I358" s="20"/>
+      <c r="A358" s="18"/>
+      <c r="I358" s="19"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="19"/>
-      <c r="I359" s="20"/>
+      <c r="A359" s="18"/>
+      <c r="I359" s="19"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="19"/>
-      <c r="I360" s="20"/>
+      <c r="A360" s="18"/>
+      <c r="I360" s="19"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="19"/>
-      <c r="I361" s="20"/>
+      <c r="A361" s="18"/>
+      <c r="I361" s="19"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="19"/>
-      <c r="I362" s="20"/>
+      <c r="A362" s="18"/>
+      <c r="I362" s="19"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="19"/>
-      <c r="I363" s="20"/>
+      <c r="A363" s="18"/>
+      <c r="I363" s="19"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="19"/>
-      <c r="I364" s="20"/>
+      <c r="A364" s="18"/>
+      <c r="I364" s="19"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="19"/>
-      <c r="I365" s="20"/>
+      <c r="A365" s="18"/>
+      <c r="I365" s="19"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="19"/>
-      <c r="I366" s="20"/>
+      <c r="A366" s="18"/>
+      <c r="I366" s="19"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="19"/>
-      <c r="I367" s="20"/>
+      <c r="A367" s="18"/>
+      <c r="I367" s="19"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="19"/>
-      <c r="I368" s="20"/>
+      <c r="A368" s="18"/>
+      <c r="I368" s="19"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="19"/>
-      <c r="I369" s="20"/>
+      <c r="A369" s="18"/>
+      <c r="I369" s="19"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="19"/>
-      <c r="I370" s="20"/>
+      <c r="A370" s="18"/>
+      <c r="I370" s="19"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="19"/>
-      <c r="I371" s="20"/>
+      <c r="A371" s="18"/>
+      <c r="I371" s="19"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="19"/>
-      <c r="I372" s="20"/>
+      <c r="A372" s="18"/>
+      <c r="I372" s="19"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="19"/>
-      <c r="I373" s="20"/>
+      <c r="A373" s="18"/>
+      <c r="I373" s="19"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="19"/>
-      <c r="I374" s="20"/>
+      <c r="A374" s="18"/>
+      <c r="I374" s="19"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="19"/>
-      <c r="I375" s="20"/>
+      <c r="A375" s="18"/>
+      <c r="I375" s="19"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="19"/>
-      <c r="I376" s="20"/>
+      <c r="A376" s="18"/>
+      <c r="I376" s="19"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="19"/>
-      <c r="I377" s="20"/>
+      <c r="A377" s="18"/>
+      <c r="I377" s="19"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="19"/>
-      <c r="I378" s="20"/>
+      <c r="A378" s="18"/>
+      <c r="I378" s="19"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="19"/>
-      <c r="I379" s="20"/>
+      <c r="A379" s="18"/>
+      <c r="I379" s="19"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="19"/>
-      <c r="I380" s="20"/>
+      <c r="A380" s="18"/>
+      <c r="I380" s="19"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="19"/>
-      <c r="I381" s="20"/>
+      <c r="A381" s="18"/>
+      <c r="I381" s="19"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="19"/>
-      <c r="I382" s="20"/>
+      <c r="A382" s="18"/>
+      <c r="I382" s="19"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="19"/>
-      <c r="I383" s="20"/>
+      <c r="A383" s="18"/>
+      <c r="I383" s="19"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="19"/>
-      <c r="I384" s="20"/>
+      <c r="A384" s="18"/>
+      <c r="I384" s="19"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="19"/>
-      <c r="I385" s="20"/>
+      <c r="A385" s="18"/>
+      <c r="I385" s="19"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="19"/>
-      <c r="I386" s="20"/>
+      <c r="A386" s="18"/>
+      <c r="I386" s="19"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="19"/>
-      <c r="I387" s="20"/>
+      <c r="A387" s="18"/>
+      <c r="I387" s="19"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="19"/>
-      <c r="I388" s="20"/>
+      <c r="A388" s="18"/>
+      <c r="I388" s="19"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="19"/>
-      <c r="I389" s="20"/>
+      <c r="A389" s="18"/>
+      <c r="I389" s="19"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="19"/>
-      <c r="I390" s="20"/>
+      <c r="A390" s="18"/>
+      <c r="I390" s="19"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="19"/>
-      <c r="I391" s="20"/>
+      <c r="A391" s="18"/>
+      <c r="I391" s="19"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="19"/>
-      <c r="I392" s="20"/>
+      <c r="A392" s="18"/>
+      <c r="I392" s="19"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="19"/>
-      <c r="I393" s="20"/>
+      <c r="A393" s="18"/>
+      <c r="I393" s="19"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="19"/>
-      <c r="I394" s="20"/>
+      <c r="A394" s="18"/>
+      <c r="I394" s="19"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="19"/>
-      <c r="I395" s="20"/>
+      <c r="A395" s="18"/>
+      <c r="I395" s="19"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="19"/>
-      <c r="I396" s="20"/>
+      <c r="A396" s="18"/>
+      <c r="I396" s="19"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="19"/>
-      <c r="I397" s="20"/>
+      <c r="A397" s="18"/>
+      <c r="I397" s="19"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="19"/>
-      <c r="I398" s="20"/>
+      <c r="A398" s="18"/>
+      <c r="I398" s="19"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="19"/>
-      <c r="I399" s="20"/>
+      <c r="A399" s="18"/>
+      <c r="I399" s="19"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="19"/>
-      <c r="I400" s="20"/>
+      <c r="A400" s="18"/>
+      <c r="I400" s="19"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="19"/>
-      <c r="I401" s="20"/>
+      <c r="A401" s="18"/>
+      <c r="I401" s="19"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="19"/>
-      <c r="I402" s="20"/>
+      <c r="A402" s="18"/>
+      <c r="I402" s="19"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="19"/>
-      <c r="I403" s="20"/>
+      <c r="A403" s="18"/>
+      <c r="I403" s="19"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="19"/>
-      <c r="I404" s="20"/>
+      <c r="A404" s="18"/>
+      <c r="I404" s="19"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="19"/>
-      <c r="I405" s="20"/>
+      <c r="A405" s="18"/>
+      <c r="I405" s="19"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="19"/>
-      <c r="I406" s="20"/>
+      <c r="A406" s="18"/>
+      <c r="I406" s="19"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="19"/>
-      <c r="I407" s="20"/>
+      <c r="A407" s="18"/>
+      <c r="I407" s="19"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="19"/>
-      <c r="I408" s="20"/>
+      <c r="A408" s="18"/>
+      <c r="I408" s="19"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="19"/>
-      <c r="I409" s="20"/>
+      <c r="A409" s="18"/>
+      <c r="I409" s="19"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="19"/>
-      <c r="I410" s="20"/>
+      <c r="A410" s="18"/>
+      <c r="I410" s="19"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="19"/>
-      <c r="I411" s="20"/>
+      <c r="A411" s="18"/>
+      <c r="I411" s="19"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="19"/>
-      <c r="I412" s="20"/>
+      <c r="A412" s="18"/>
+      <c r="I412" s="19"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="19"/>
-      <c r="I413" s="20"/>
+      <c r="A413" s="18"/>
+      <c r="I413" s="19"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="19"/>
-      <c r="I414" s="20"/>
+      <c r="A414" s="18"/>
+      <c r="I414" s="19"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="19"/>
-      <c r="I415" s="20"/>
+      <c r="A415" s="18"/>
+      <c r="I415" s="19"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="19"/>
-      <c r="I416" s="20"/>
+      <c r="A416" s="18"/>
+      <c r="I416" s="19"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="19"/>
-      <c r="I417" s="20"/>
+      <c r="A417" s="18"/>
+      <c r="I417" s="19"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="19"/>
-      <c r="I418" s="20"/>
+      <c r="A418" s="18"/>
+      <c r="I418" s="19"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="19"/>
-      <c r="I419" s="20"/>
+      <c r="A419" s="18"/>
+      <c r="I419" s="19"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="19"/>
-      <c r="I420" s="20"/>
+      <c r="A420" s="18"/>
+      <c r="I420" s="19"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="19"/>
-      <c r="I421" s="20"/>
+      <c r="A421" s="18"/>
+      <c r="I421" s="19"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="19"/>
-      <c r="I422" s="20"/>
+      <c r="A422" s="18"/>
+      <c r="I422" s="19"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="19"/>
-      <c r="I423" s="20"/>
+      <c r="A423" s="18"/>
+      <c r="I423" s="19"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="19"/>
-      <c r="I424" s="20"/>
+      <c r="A424" s="18"/>
+      <c r="I424" s="19"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="19"/>
-      <c r="I425" s="20"/>
+      <c r="A425" s="18"/>
+      <c r="I425" s="19"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="19"/>
-      <c r="I426" s="20"/>
+      <c r="A426" s="18"/>
+      <c r="I426" s="19"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="19"/>
-      <c r="I427" s="20"/>
+      <c r="A427" s="18"/>
+      <c r="I427" s="19"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="19"/>
-      <c r="I428" s="20"/>
+      <c r="A428" s="18"/>
+      <c r="I428" s="19"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="19"/>
-      <c r="I429" s="20"/>
+      <c r="A429" s="18"/>
+      <c r="I429" s="19"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="19"/>
-      <c r="I430" s="20"/>
+      <c r="A430" s="18"/>
+      <c r="I430" s="19"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="19"/>
-      <c r="I431" s="20"/>
+      <c r="A431" s="18"/>
+      <c r="I431" s="19"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="19"/>
-      <c r="I432" s="20"/>
+      <c r="A432" s="18"/>
+      <c r="I432" s="19"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="19"/>
-      <c r="I433" s="20"/>
+      <c r="A433" s="18"/>
+      <c r="I433" s="19"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="19"/>
-      <c r="I434" s="20"/>
+      <c r="A434" s="18"/>
+      <c r="I434" s="19"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="19"/>
-      <c r="I435" s="20"/>
+      <c r="A435" s="18"/>
+      <c r="I435" s="19"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="19"/>
-      <c r="I436" s="20"/>
+      <c r="A436" s="18"/>
+      <c r="I436" s="19"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="19"/>
-      <c r="I437" s="20"/>
+      <c r="A437" s="18"/>
+      <c r="I437" s="19"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="19"/>
-      <c r="I438" s="20"/>
+      <c r="A438" s="18"/>
+      <c r="I438" s="19"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="19"/>
-      <c r="I439" s="20"/>
+      <c r="A439" s="18"/>
+      <c r="I439" s="19"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="19"/>
-      <c r="I440" s="20"/>
+      <c r="A440" s="18"/>
+      <c r="I440" s="19"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="19"/>
-      <c r="I441" s="20"/>
+      <c r="A441" s="18"/>
+      <c r="I441" s="19"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="19"/>
-      <c r="I442" s="20"/>
+      <c r="A442" s="18"/>
+      <c r="I442" s="19"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="19"/>
-      <c r="I443" s="20"/>
+      <c r="A443" s="18"/>
+      <c r="I443" s="19"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="19"/>
-      <c r="I444" s="20"/>
+      <c r="A444" s="18"/>
+      <c r="I444" s="19"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="19"/>
-      <c r="I445" s="20"/>
+      <c r="A445" s="18"/>
+      <c r="I445" s="19"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="19"/>
-      <c r="I446" s="20"/>
+      <c r="A446" s="18"/>
+      <c r="I446" s="19"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="19"/>
-      <c r="I447" s="20"/>
+      <c r="A447" s="18"/>
+      <c r="I447" s="19"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="19"/>
-      <c r="I448" s="20"/>
+      <c r="A448" s="18"/>
+      <c r="I448" s="19"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="19"/>
-      <c r="I449" s="20"/>
+      <c r="A449" s="18"/>
+      <c r="I449" s="19"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="19"/>
-      <c r="I450" s="20"/>
+      <c r="A450" s="18"/>
+      <c r="I450" s="19"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="19"/>
-      <c r="I451" s="20"/>
+      <c r="A451" s="18"/>
+      <c r="I451" s="19"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="19"/>
-      <c r="I452" s="20"/>
+      <c r="A452" s="18"/>
+      <c r="I452" s="19"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="19"/>
-      <c r="I453" s="20"/>
+      <c r="A453" s="18"/>
+      <c r="I453" s="19"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="19"/>
-      <c r="I454" s="20"/>
+      <c r="A454" s="18"/>
+      <c r="I454" s="19"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="19"/>
-      <c r="I455" s="20"/>
+      <c r="A455" s="18"/>
+      <c r="I455" s="19"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="19"/>
-      <c r="I456" s="20"/>
+      <c r="A456" s="18"/>
+      <c r="I456" s="19"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="19"/>
-      <c r="I457" s="20"/>
+      <c r="A457" s="18"/>
+      <c r="I457" s="19"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="19"/>
-      <c r="I458" s="20"/>
+      <c r="A458" s="18"/>
+      <c r="I458" s="19"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="19"/>
-      <c r="I459" s="20"/>
+      <c r="A459" s="18"/>
+      <c r="I459" s="19"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="19"/>
-      <c r="I460" s="20"/>
+      <c r="A460" s="18"/>
+      <c r="I460" s="19"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="19"/>
-      <c r="I461" s="20"/>
+      <c r="A461" s="18"/>
+      <c r="I461" s="19"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="19"/>
-      <c r="I462" s="20"/>
+      <c r="A462" s="18"/>
+      <c r="I462" s="19"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="19"/>
-      <c r="I463" s="20"/>
+      <c r="A463" s="18"/>
+      <c r="I463" s="19"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="19"/>
-      <c r="I464" s="20"/>
+      <c r="A464" s="18"/>
+      <c r="I464" s="19"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="19"/>
-      <c r="I465" s="20"/>
+      <c r="A465" s="18"/>
+      <c r="I465" s="19"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="19"/>
-      <c r="I466" s="20"/>
+      <c r="A466" s="18"/>
+      <c r="I466" s="19"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="19"/>
-      <c r="I467" s="20"/>
+      <c r="A467" s="18"/>
+      <c r="I467" s="19"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="19"/>
-      <c r="I468" s="20"/>
+      <c r="A468" s="18"/>
+      <c r="I468" s="19"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="19"/>
-      <c r="I469" s="20"/>
+      <c r="A469" s="18"/>
+      <c r="I469" s="19"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="19"/>
-      <c r="I470" s="20"/>
+      <c r="A470" s="18"/>
+      <c r="I470" s="19"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="19"/>
-      <c r="I471" s="20"/>
+      <c r="A471" s="18"/>
+      <c r="I471" s="19"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="19"/>
-      <c r="I472" s="20"/>
+      <c r="A472" s="18"/>
+      <c r="I472" s="19"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="19"/>
-      <c r="I473" s="20"/>
+      <c r="A473" s="18"/>
+      <c r="I473" s="19"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="19"/>
-      <c r="I474" s="20"/>
+      <c r="A474" s="18"/>
+      <c r="I474" s="19"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="19"/>
-      <c r="I475" s="20"/>
+      <c r="A475" s="18"/>
+      <c r="I475" s="19"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="19"/>
-      <c r="I476" s="20"/>
+      <c r="A476" s="18"/>
+      <c r="I476" s="19"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="19"/>
-      <c r="I477" s="20"/>
+      <c r="A477" s="18"/>
+      <c r="I477" s="19"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="19"/>
-      <c r="I478" s="20"/>
+      <c r="A478" s="18"/>
+      <c r="I478" s="19"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="19"/>
-      <c r="I479" s="20"/>
+      <c r="A479" s="18"/>
+      <c r="I479" s="19"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="19"/>
-      <c r="I480" s="20"/>
+      <c r="A480" s="18"/>
+      <c r="I480" s="19"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="19"/>
-      <c r="I481" s="20"/>
+      <c r="A481" s="18"/>
+      <c r="I481" s="19"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="19"/>
-      <c r="I482" s="20"/>
+      <c r="A482" s="18"/>
+      <c r="I482" s="19"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="19"/>
-      <c r="I483" s="20"/>
+      <c r="A483" s="18"/>
+      <c r="I483" s="19"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="19"/>
-      <c r="I484" s="20"/>
+      <c r="A484" s="18"/>
+      <c r="I484" s="19"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="19"/>
-      <c r="I485" s="20"/>
+      <c r="A485" s="18"/>
+      <c r="I485" s="19"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="19"/>
-      <c r="I486" s="20"/>
+      <c r="A486" s="18"/>
+      <c r="I486" s="19"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="19"/>
-      <c r="I487" s="20"/>
+      <c r="A487" s="18"/>
+      <c r="I487" s="19"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="19"/>
-      <c r="I488" s="20"/>
+      <c r="A488" s="18"/>
+      <c r="I488" s="19"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="19"/>
-      <c r="I489" s="20"/>
+      <c r="A489" s="18"/>
+      <c r="I489" s="19"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="19"/>
-      <c r="I490" s="20"/>
+      <c r="A490" s="18"/>
+      <c r="I490" s="19"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="19"/>
-      <c r="I491" s="20"/>
+      <c r="A491" s="18"/>
+      <c r="I491" s="19"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="19"/>
-      <c r="I492" s="20"/>
+      <c r="A492" s="18"/>
+      <c r="I492" s="19"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="19"/>
-      <c r="I493" s="20"/>
+      <c r="A493" s="18"/>
+      <c r="I493" s="19"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="19"/>
-      <c r="I494" s="20"/>
+      <c r="A494" s="18"/>
+      <c r="I494" s="19"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="19"/>
-      <c r="I495" s="20"/>
+      <c r="A495" s="18"/>
+      <c r="I495" s="19"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="19"/>
-      <c r="I496" s="20"/>
+      <c r="A496" s="18"/>
+      <c r="I496" s="19"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="19"/>
-      <c r="I497" s="20"/>
+      <c r="A497" s="18"/>
+      <c r="I497" s="19"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="19"/>
-      <c r="I498" s="20"/>
+      <c r="A498" s="18"/>
+      <c r="I498" s="19"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="19"/>
-      <c r="I499" s="20"/>
+      <c r="A499" s="18"/>
+      <c r="I499" s="19"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="19"/>
-      <c r="I500" s="20"/>
+      <c r="A500" s="18"/>
+      <c r="I500" s="19"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="19"/>
-      <c r="I501" s="20"/>
+      <c r="A501" s="18"/>
+      <c r="I501" s="19"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="19"/>
-      <c r="I502" s="20"/>
+      <c r="A502" s="18"/>
+      <c r="I502" s="19"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="19"/>
-      <c r="I503" s="20"/>
+      <c r="A503" s="18"/>
+      <c r="I503" s="19"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="19"/>
-      <c r="I504" s="20"/>
+      <c r="A504" s="18"/>
+      <c r="I504" s="19"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="19"/>
-      <c r="I505" s="20"/>
+      <c r="A505" s="18"/>
+      <c r="I505" s="19"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="19"/>
-      <c r="I506" s="20"/>
+      <c r="A506" s="18"/>
+      <c r="I506" s="19"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="19"/>
-      <c r="I507" s="20"/>
+      <c r="A507" s="18"/>
+      <c r="I507" s="19"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="19"/>
-      <c r="I508" s="20"/>
+      <c r="A508" s="18"/>
+      <c r="I508" s="19"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="19"/>
-      <c r="I509" s="20"/>
+      <c r="A509" s="18"/>
+      <c r="I509" s="19"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="19"/>
-      <c r="I510" s="20"/>
+      <c r="A510" s="18"/>
+      <c r="I510" s="19"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="19"/>
-      <c r="I511" s="20"/>
+      <c r="A511" s="18"/>
+      <c r="I511" s="19"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="19"/>
-      <c r="I512" s="20"/>
+      <c r="A512" s="18"/>
+      <c r="I512" s="19"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="19"/>
-      <c r="I513" s="20"/>
+      <c r="A513" s="18"/>
+      <c r="I513" s="19"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="19"/>
-      <c r="I514" s="20"/>
+      <c r="A514" s="18"/>
+      <c r="I514" s="19"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="19"/>
-      <c r="I515" s="20"/>
+      <c r="A515" s="18"/>
+      <c r="I515" s="19"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="19"/>
-      <c r="I516" s="20"/>
+      <c r="A516" s="18"/>
+      <c r="I516" s="19"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="19"/>
-      <c r="I517" s="20"/>
+      <c r="A517" s="18"/>
+      <c r="I517" s="19"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="19"/>
-      <c r="I518" s="20"/>
+      <c r="A518" s="18"/>
+      <c r="I518" s="19"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="19"/>
-      <c r="I519" s="20"/>
+      <c r="A519" s="18"/>
+      <c r="I519" s="19"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="19"/>
-      <c r="I520" s="20"/>
+      <c r="A520" s="18"/>
+      <c r="I520" s="19"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="19"/>
-      <c r="I521" s="20"/>
+      <c r="A521" s="18"/>
+      <c r="I521" s="19"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="19"/>
-      <c r="I522" s="20"/>
+      <c r="A522" s="18"/>
+      <c r="I522" s="19"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="19"/>
-      <c r="I523" s="20"/>
+      <c r="A523" s="18"/>
+      <c r="I523" s="19"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="19"/>
-      <c r="I524" s="20"/>
+      <c r="A524" s="18"/>
+      <c r="I524" s="19"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="19"/>
-      <c r="I525" s="20"/>
+      <c r="A525" s="18"/>
+      <c r="I525" s="19"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="19"/>
-      <c r="I526" s="20"/>
+      <c r="A526" s="18"/>
+      <c r="I526" s="19"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="19"/>
-      <c r="I527" s="20"/>
+      <c r="A527" s="18"/>
+      <c r="I527" s="19"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="19"/>
-      <c r="I528" s="20"/>
+      <c r="A528" s="18"/>
+      <c r="I528" s="19"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="19"/>
-      <c r="I529" s="20"/>
+      <c r="A529" s="18"/>
+      <c r="I529" s="19"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="19"/>
-      <c r="I530" s="20"/>
+      <c r="A530" s="18"/>
+      <c r="I530" s="19"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="19"/>
-      <c r="I531" s="20"/>
+      <c r="A531" s="18"/>
+      <c r="I531" s="19"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="19"/>
-      <c r="I532" s="20"/>
+      <c r="A532" s="18"/>
+      <c r="I532" s="19"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="19"/>
-      <c r="I533" s="20"/>
+      <c r="A533" s="18"/>
+      <c r="I533" s="19"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="19"/>
-      <c r="I534" s="20"/>
+      <c r="A534" s="18"/>
+      <c r="I534" s="19"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="19"/>
-      <c r="I535" s="20"/>
+      <c r="A535" s="18"/>
+      <c r="I535" s="19"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="19"/>
-      <c r="I536" s="20"/>
+      <c r="A536" s="18"/>
+      <c r="I536" s="19"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="19"/>
-      <c r="I537" s="20"/>
+      <c r="A537" s="18"/>
+      <c r="I537" s="19"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="19"/>
-      <c r="I538" s="20"/>
+      <c r="A538" s="18"/>
+      <c r="I538" s="19"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="19"/>
-      <c r="I539" s="20"/>
+      <c r="A539" s="18"/>
+      <c r="I539" s="19"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="19"/>
-      <c r="I540" s="20"/>
+      <c r="A540" s="18"/>
+      <c r="I540" s="19"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="19"/>
-      <c r="I541" s="20"/>
+      <c r="A541" s="18"/>
+      <c r="I541" s="19"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="19"/>
-      <c r="I542" s="20"/>
+      <c r="A542" s="18"/>
+      <c r="I542" s="19"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="19"/>
-      <c r="I543" s="20"/>
+      <c r="A543" s="18"/>
+      <c r="I543" s="19"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="19"/>
-      <c r="I544" s="20"/>
+      <c r="A544" s="18"/>
+      <c r="I544" s="19"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="19"/>
-      <c r="I545" s="20"/>
+      <c r="A545" s="18"/>
+      <c r="I545" s="19"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="19"/>
-      <c r="I546" s="20"/>
+      <c r="A546" s="18"/>
+      <c r="I546" s="19"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="19"/>
-      <c r="I547" s="20"/>
+      <c r="A547" s="18"/>
+      <c r="I547" s="19"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="19"/>
-      <c r="I548" s="20"/>
+      <c r="A548" s="18"/>
+      <c r="I548" s="19"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="19"/>
-      <c r="I549" s="20"/>
+      <c r="A549" s="18"/>
+      <c r="I549" s="19"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="19"/>
-      <c r="I550" s="20"/>
+      <c r="A550" s="18"/>
+      <c r="I550" s="19"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="19"/>
-      <c r="I551" s="20"/>
+      <c r="A551" s="18"/>
+      <c r="I551" s="19"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="19"/>
-      <c r="I552" s="20"/>
+      <c r="A552" s="18"/>
+      <c r="I552" s="19"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="19"/>
-      <c r="I553" s="20"/>
+      <c r="A553" s="18"/>
+      <c r="I553" s="19"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="19"/>
-      <c r="I554" s="20"/>
+      <c r="A554" s="18"/>
+      <c r="I554" s="19"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="19"/>
-      <c r="I555" s="20"/>
+      <c r="A555" s="18"/>
+      <c r="I555" s="19"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="19"/>
-      <c r="I556" s="20"/>
+      <c r="A556" s="18"/>
+      <c r="I556" s="19"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="19"/>
-      <c r="I557" s="20"/>
+      <c r="A557" s="18"/>
+      <c r="I557" s="19"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="19"/>
-      <c r="I558" s="20"/>
+      <c r="A558" s="18"/>
+      <c r="I558" s="19"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="19"/>
-      <c r="I559" s="20"/>
+      <c r="A559" s="18"/>
+      <c r="I559" s="19"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="19"/>
-      <c r="I560" s="20"/>
+      <c r="A560" s="18"/>
+      <c r="I560" s="19"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="19"/>
-      <c r="I561" s="20"/>
+      <c r="A561" s="18"/>
+      <c r="I561" s="19"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="19"/>
-      <c r="I562" s="20"/>
+      <c r="A562" s="18"/>
+      <c r="I562" s="19"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="19"/>
-      <c r="I563" s="20"/>
+      <c r="A563" s="18"/>
+      <c r="I563" s="19"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="19"/>
-      <c r="I564" s="20"/>
+      <c r="A564" s="18"/>
+      <c r="I564" s="19"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="19"/>
-      <c r="I565" s="20"/>
+      <c r="A565" s="18"/>
+      <c r="I565" s="19"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="19"/>
-      <c r="I566" s="20"/>
+      <c r="A566" s="18"/>
+      <c r="I566" s="19"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="19"/>
-      <c r="I567" s="20"/>
+      <c r="A567" s="18"/>
+      <c r="I567" s="19"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="19"/>
-      <c r="I568" s="20"/>
+      <c r="A568" s="18"/>
+      <c r="I568" s="19"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="19"/>
-      <c r="I569" s="20"/>
+      <c r="A569" s="18"/>
+      <c r="I569" s="19"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="19"/>
-      <c r="I570" s="20"/>
+      <c r="A570" s="18"/>
+      <c r="I570" s="19"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="19"/>
-      <c r="I571" s="20"/>
+      <c r="A571" s="18"/>
+      <c r="I571" s="19"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="19"/>
-      <c r="I572" s="20"/>
+      <c r="A572" s="18"/>
+      <c r="I572" s="19"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="19"/>
-      <c r="I573" s="20"/>
+      <c r="A573" s="18"/>
+      <c r="I573" s="19"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="19"/>
-      <c r="I574" s="20"/>
+      <c r="A574" s="18"/>
+      <c r="I574" s="19"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="19"/>
-      <c r="I575" s="20"/>
+      <c r="A575" s="18"/>
+      <c r="I575" s="19"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="19"/>
-      <c r="I576" s="20"/>
+      <c r="A576" s="18"/>
+      <c r="I576" s="19"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="19"/>
-      <c r="I577" s="20"/>
+      <c r="A577" s="18"/>
+      <c r="I577" s="19"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="19"/>
-      <c r="I578" s="20"/>
+      <c r="A578" s="18"/>
+      <c r="I578" s="19"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="19"/>
-      <c r="I579" s="20"/>
+      <c r="A579" s="18"/>
+      <c r="I579" s="19"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="19"/>
-      <c r="I580" s="20"/>
+      <c r="A580" s="18"/>
+      <c r="I580" s="19"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="19"/>
-      <c r="I581" s="20"/>
+      <c r="A581" s="18"/>
+      <c r="I581" s="19"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="19"/>
-      <c r="I582" s="20"/>
+      <c r="A582" s="18"/>
+      <c r="I582" s="19"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="19"/>
-      <c r="I583" s="20"/>
+      <c r="A583" s="18"/>
+      <c r="I583" s="19"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="19"/>
-      <c r="I584" s="20"/>
+      <c r="A584" s="18"/>
+      <c r="I584" s="19"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="19"/>
-      <c r="I585" s="20"/>
+      <c r="A585" s="18"/>
+      <c r="I585" s="19"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="19"/>
-      <c r="I586" s="20"/>
+      <c r="A586" s="18"/>
+      <c r="I586" s="19"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="19"/>
-      <c r="I587" s="20"/>
+      <c r="A587" s="18"/>
+      <c r="I587" s="19"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="19"/>
-      <c r="I588" s="20"/>
+      <c r="A588" s="18"/>
+      <c r="I588" s="19"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="19"/>
-      <c r="I589" s="20"/>
+      <c r="A589" s="18"/>
+      <c r="I589" s="19"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="19"/>
-      <c r="I590" s="20"/>
+      <c r="A590" s="18"/>
+      <c r="I590" s="19"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="19"/>
-      <c r="I591" s="20"/>
+      <c r="A591" s="18"/>
+      <c r="I591" s="19"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="19"/>
-      <c r="I592" s="20"/>
+      <c r="A592" s="18"/>
+      <c r="I592" s="19"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="19"/>
-      <c r="I593" s="20"/>
+      <c r="A593" s="18"/>
+      <c r="I593" s="19"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="19"/>
-      <c r="I594" s="20"/>
+      <c r="A594" s="18"/>
+      <c r="I594" s="19"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="19"/>
-      <c r="I595" s="20"/>
+      <c r="A595" s="18"/>
+      <c r="I595" s="19"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="19"/>
-      <c r="I596" s="20"/>
+      <c r="A596" s="18"/>
+      <c r="I596" s="19"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="19"/>
-      <c r="I597" s="20"/>
+      <c r="A597" s="18"/>
+      <c r="I597" s="19"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="19"/>
-      <c r="I598" s="20"/>
+      <c r="A598" s="18"/>
+      <c r="I598" s="19"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="19"/>
-      <c r="I599" s="20"/>
+      <c r="A599" s="18"/>
+      <c r="I599" s="19"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="19"/>
-      <c r="I600" s="20"/>
+      <c r="A600" s="18"/>
+      <c r="I600" s="19"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="19"/>
-      <c r="I601" s="20"/>
+      <c r="A601" s="18"/>
+      <c r="I601" s="19"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="19"/>
-      <c r="I602" s="20"/>
+      <c r="A602" s="18"/>
+      <c r="I602" s="19"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="19"/>
-      <c r="I603" s="20"/>
+      <c r="A603" s="18"/>
+      <c r="I603" s="19"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="19"/>
-      <c r="I604" s="20"/>
+      <c r="A604" s="18"/>
+      <c r="I604" s="19"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="19"/>
-      <c r="I605" s="20"/>
+      <c r="A605" s="18"/>
+      <c r="I605" s="19"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="19"/>
-      <c r="I606" s="20"/>
+      <c r="A606" s="18"/>
+      <c r="I606" s="19"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="19"/>
-      <c r="I607" s="20"/>
+      <c r="A607" s="18"/>
+      <c r="I607" s="19"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="19"/>
-      <c r="I608" s="20"/>
+      <c r="A608" s="18"/>
+      <c r="I608" s="19"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="19"/>
-      <c r="I609" s="20"/>
+      <c r="A609" s="18"/>
+      <c r="I609" s="19"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="19"/>
-      <c r="I610" s="20"/>
+      <c r="A610" s="18"/>
+      <c r="I610" s="19"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="19"/>
-      <c r="I611" s="20"/>
+      <c r="A611" s="18"/>
+      <c r="I611" s="19"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="19"/>
-      <c r="I612" s="20"/>
+      <c r="A612" s="18"/>
+      <c r="I612" s="19"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="19"/>
-      <c r="I613" s="20"/>
+      <c r="A613" s="18"/>
+      <c r="I613" s="19"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="19"/>
-      <c r="I614" s="20"/>
+      <c r="A614" s="18"/>
+      <c r="I614" s="19"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="19"/>
-      <c r="I615" s="20"/>
+      <c r="A615" s="18"/>
+      <c r="I615" s="19"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="19"/>
-      <c r="I616" s="20"/>
+      <c r="A616" s="18"/>
+      <c r="I616" s="19"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="19"/>
-      <c r="I617" s="20"/>
+      <c r="A617" s="18"/>
+      <c r="I617" s="19"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="19"/>
-      <c r="I618" s="20"/>
+      <c r="A618" s="18"/>
+      <c r="I618" s="19"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="19"/>
-      <c r="I619" s="20"/>
+      <c r="A619" s="18"/>
+      <c r="I619" s="19"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="19"/>
-      <c r="I620" s="20"/>
+      <c r="A620" s="18"/>
+      <c r="I620" s="19"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="19"/>
-      <c r="I621" s="20"/>
+      <c r="A621" s="18"/>
+      <c r="I621" s="19"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="19"/>
-      <c r="I622" s="20"/>
+      <c r="A622" s="18"/>
+      <c r="I622" s="19"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="19"/>
-      <c r="I623" s="20"/>
+      <c r="A623" s="18"/>
+      <c r="I623" s="19"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="19"/>
-      <c r="I624" s="20"/>
+      <c r="A624" s="18"/>
+      <c r="I624" s="19"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="19"/>
-      <c r="I625" s="20"/>
+      <c r="A625" s="18"/>
+      <c r="I625" s="19"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="19"/>
-      <c r="I626" s="20"/>
+      <c r="A626" s="18"/>
+      <c r="I626" s="19"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="19"/>
-      <c r="I627" s="20"/>
+      <c r="A627" s="18"/>
+      <c r="I627" s="19"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="19"/>
-      <c r="I628" s="20"/>
+      <c r="A628" s="18"/>
+      <c r="I628" s="19"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="19"/>
-      <c r="I629" s="20"/>
+      <c r="A629" s="18"/>
+      <c r="I629" s="19"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="19"/>
-      <c r="I630" s="20"/>
+      <c r="A630" s="18"/>
+      <c r="I630" s="19"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="19"/>
-      <c r="I631" s="20"/>
+      <c r="A631" s="18"/>
+      <c r="I631" s="19"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="19"/>
-      <c r="I632" s="20"/>
+      <c r="A632" s="18"/>
+      <c r="I632" s="19"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="19"/>
-      <c r="I633" s="20"/>
+      <c r="A633" s="18"/>
+      <c r="I633" s="19"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="19"/>
-      <c r="I634" s="20"/>
+      <c r="A634" s="18"/>
+      <c r="I634" s="19"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="19"/>
-      <c r="I635" s="20"/>
+      <c r="A635" s="18"/>
+      <c r="I635" s="19"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="19"/>
-      <c r="I636" s="20"/>
+      <c r="A636" s="18"/>
+      <c r="I636" s="19"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="19"/>
-      <c r="I637" s="20"/>
+      <c r="A637" s="18"/>
+      <c r="I637" s="19"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="19"/>
-      <c r="I638" s="20"/>
+      <c r="A638" s="18"/>
+      <c r="I638" s="19"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="19"/>
-      <c r="I639" s="20"/>
+      <c r="A639" s="18"/>
+      <c r="I639" s="19"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="19"/>
-      <c r="I640" s="20"/>
+      <c r="A640" s="18"/>
+      <c r="I640" s="19"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="19"/>
-      <c r="I641" s="20"/>
+      <c r="A641" s="18"/>
+      <c r="I641" s="19"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="19"/>
-      <c r="I642" s="20"/>
+      <c r="A642" s="18"/>
+      <c r="I642" s="19"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="19"/>
-      <c r="I643" s="20"/>
+      <c r="A643" s="18"/>
+      <c r="I643" s="19"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="19"/>
-      <c r="I644" s="20"/>
+      <c r="A644" s="18"/>
+      <c r="I644" s="19"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="19"/>
-      <c r="I645" s="20"/>
+      <c r="A645" s="18"/>
+      <c r="I645" s="19"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="19"/>
-      <c r="I646" s="20"/>
+      <c r="A646" s="18"/>
+      <c r="I646" s="19"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="19"/>
-      <c r="I647" s="20"/>
+      <c r="A647" s="18"/>
+      <c r="I647" s="19"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="19"/>
-      <c r="I648" s="20"/>
+      <c r="A648" s="18"/>
+      <c r="I648" s="19"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="19"/>
-      <c r="I649" s="20"/>
+      <c r="A649" s="18"/>
+      <c r="I649" s="19"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="19"/>
-      <c r="I650" s="20"/>
+      <c r="A650" s="18"/>
+      <c r="I650" s="19"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="19"/>
-      <c r="I651" s="20"/>
+      <c r="A651" s="18"/>
+      <c r="I651" s="19"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="19"/>
-      <c r="I652" s="20"/>
+      <c r="A652" s="18"/>
+      <c r="I652" s="19"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="19"/>
-      <c r="I653" s="20"/>
+      <c r="A653" s="18"/>
+      <c r="I653" s="19"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="19"/>
-      <c r="I654" s="20"/>
+      <c r="A654" s="18"/>
+      <c r="I654" s="19"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="19"/>
-      <c r="I655" s="20"/>
+      <c r="A655" s="18"/>
+      <c r="I655" s="19"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="19"/>
-      <c r="I656" s="20"/>
+      <c r="A656" s="18"/>
+      <c r="I656" s="19"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="19"/>
-      <c r="I657" s="20"/>
+      <c r="A657" s="18"/>
+      <c r="I657" s="19"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="19"/>
-      <c r="I658" s="20"/>
+      <c r="A658" s="18"/>
+      <c r="I658" s="19"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="19"/>
-      <c r="I659" s="20"/>
+      <c r="A659" s="18"/>
+      <c r="I659" s="19"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="19"/>
-      <c r="I660" s="20"/>
+      <c r="A660" s="18"/>
+      <c r="I660" s="19"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="19"/>
-      <c r="I661" s="20"/>
+      <c r="A661" s="18"/>
+      <c r="I661" s="19"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="19"/>
-      <c r="I662" s="20"/>
+      <c r="A662" s="18"/>
+      <c r="I662" s="19"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="19"/>
-      <c r="I663" s="20"/>
+      <c r="A663" s="18"/>
+      <c r="I663" s="19"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="19"/>
-      <c r="I664" s="20"/>
+      <c r="A664" s="18"/>
+      <c r="I664" s="19"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="19"/>
-      <c r="I665" s="20"/>
+      <c r="A665" s="18"/>
+      <c r="I665" s="19"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="19"/>
-      <c r="I666" s="20"/>
+      <c r="A666" s="18"/>
+      <c r="I666" s="19"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="19"/>
-      <c r="I667" s="20"/>
+      <c r="A667" s="18"/>
+      <c r="I667" s="19"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="19"/>
-      <c r="I668" s="20"/>
+      <c r="A668" s="18"/>
+      <c r="I668" s="19"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="19"/>
-      <c r="I669" s="20"/>
+      <c r="A669" s="18"/>
+      <c r="I669" s="19"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="19"/>
-      <c r="I670" s="20"/>
+      <c r="A670" s="18"/>
+      <c r="I670" s="19"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="19"/>
-      <c r="I671" s="20"/>
+      <c r="A671" s="18"/>
+      <c r="I671" s="19"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="19"/>
-      <c r="I672" s="20"/>
+      <c r="A672" s="18"/>
+      <c r="I672" s="19"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="19"/>
-      <c r="I673" s="20"/>
+      <c r="A673" s="18"/>
+      <c r="I673" s="19"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="19"/>
-      <c r="I674" s="20"/>
+      <c r="A674" s="18"/>
+      <c r="I674" s="19"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="19"/>
-      <c r="I675" s="20"/>
+      <c r="A675" s="18"/>
+      <c r="I675" s="19"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="19"/>
-      <c r="I676" s="20"/>
+      <c r="A676" s="18"/>
+      <c r="I676" s="19"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="19"/>
-      <c r="I677" s="20"/>
+      <c r="A677" s="18"/>
+      <c r="I677" s="19"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="19"/>
-      <c r="I678" s="20"/>
+      <c r="A678" s="18"/>
+      <c r="I678" s="19"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="19"/>
-      <c r="I679" s="20"/>
+      <c r="A679" s="18"/>
+      <c r="I679" s="19"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="19"/>
-      <c r="I680" s="20"/>
+      <c r="A680" s="18"/>
+      <c r="I680" s="19"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="19"/>
-      <c r="I681" s="20"/>
+      <c r="A681" s="18"/>
+      <c r="I681" s="19"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="19"/>
-      <c r="I682" s="20"/>
+      <c r="A682" s="18"/>
+      <c r="I682" s="19"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="19"/>
-      <c r="I683" s="20"/>
+      <c r="A683" s="18"/>
+      <c r="I683" s="19"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="19"/>
-      <c r="I684" s="20"/>
+      <c r="A684" s="18"/>
+      <c r="I684" s="19"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="19"/>
-      <c r="I685" s="20"/>
+      <c r="A685" s="18"/>
+      <c r="I685" s="19"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="19"/>
-      <c r="I686" s="20"/>
+      <c r="A686" s="18"/>
+      <c r="I686" s="19"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="19"/>
-      <c r="I687" s="20"/>
+      <c r="A687" s="18"/>
+      <c r="I687" s="19"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="19"/>
-      <c r="I688" s="20"/>
+      <c r="A688" s="18"/>
+      <c r="I688" s="19"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="19"/>
-      <c r="I689" s="20"/>
+      <c r="A689" s="18"/>
+      <c r="I689" s="19"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="19"/>
-      <c r="I690" s="20"/>
+      <c r="A690" s="18"/>
+      <c r="I690" s="19"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="19"/>
-      <c r="I691" s="20"/>
+      <c r="A691" s="18"/>
+      <c r="I691" s="19"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="19"/>
-      <c r="I692" s="20"/>
+      <c r="A692" s="18"/>
+      <c r="I692" s="19"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="19"/>
-      <c r="I693" s="20"/>
+      <c r="A693" s="18"/>
+      <c r="I693" s="19"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="19"/>
-      <c r="I694" s="20"/>
+      <c r="A694" s="18"/>
+      <c r="I694" s="19"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="19"/>
-      <c r="I695" s="20"/>
+      <c r="A695" s="18"/>
+      <c r="I695" s="19"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="19"/>
-      <c r="I696" s="20"/>
+      <c r="A696" s="18"/>
+      <c r="I696" s="19"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="19"/>
-      <c r="I697" s="20"/>
+      <c r="A697" s="18"/>
+      <c r="I697" s="19"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="19"/>
-      <c r="I698" s="20"/>
+      <c r="A698" s="18"/>
+      <c r="I698" s="19"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="19"/>
-      <c r="I699" s="20"/>
+      <c r="A699" s="18"/>
+      <c r="I699" s="19"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="19"/>
-      <c r="I700" s="20"/>
+      <c r="A700" s="18"/>
+      <c r="I700" s="19"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="19"/>
-      <c r="I701" s="20"/>
+      <c r="A701" s="18"/>
+      <c r="I701" s="19"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="19"/>
-      <c r="I702" s="20"/>
+      <c r="A702" s="18"/>
+      <c r="I702" s="19"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="19"/>
-      <c r="I703" s="20"/>
+      <c r="A703" s="18"/>
+      <c r="I703" s="19"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="19"/>
-      <c r="I704" s="20"/>
+      <c r="A704" s="18"/>
+      <c r="I704" s="19"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="19"/>
-      <c r="I705" s="20"/>
+      <c r="A705" s="18"/>
+      <c r="I705" s="19"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="19"/>
-      <c r="I706" s="20"/>
+      <c r="A706" s="18"/>
+      <c r="I706" s="19"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="19"/>
-      <c r="I707" s="20"/>
+      <c r="A707" s="18"/>
+      <c r="I707" s="19"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="19"/>
-      <c r="I708" s="20"/>
+      <c r="A708" s="18"/>
+      <c r="I708" s="19"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="19"/>
-      <c r="I709" s="20"/>
+      <c r="A709" s="18"/>
+      <c r="I709" s="19"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="19"/>
-      <c r="I710" s="20"/>
+      <c r="A710" s="18"/>
+      <c r="I710" s="19"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="19"/>
-      <c r="I711" s="20"/>
+      <c r="A711" s="18"/>
+      <c r="I711" s="19"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="19"/>
-      <c r="I712" s="20"/>
+      <c r="A712" s="18"/>
+      <c r="I712" s="19"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="19"/>
-      <c r="I713" s="20"/>
+      <c r="A713" s="18"/>
+      <c r="I713" s="19"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="19"/>
-      <c r="I714" s="20"/>
+      <c r="A714" s="18"/>
+      <c r="I714" s="19"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="19"/>
-      <c r="I715" s="20"/>
+      <c r="A715" s="18"/>
+      <c r="I715" s="19"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="19"/>
-      <c r="I716" s="20"/>
+      <c r="A716" s="18"/>
+      <c r="I716" s="19"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="19"/>
-      <c r="I717" s="20"/>
+      <c r="A717" s="18"/>
+      <c r="I717" s="19"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="19"/>
-      <c r="I718" s="20"/>
+      <c r="A718" s="18"/>
+      <c r="I718" s="19"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="19"/>
-      <c r="I719" s="20"/>
+      <c r="A719" s="18"/>
+      <c r="I719" s="19"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="19"/>
-      <c r="I720" s="20"/>
+      <c r="A720" s="18"/>
+      <c r="I720" s="19"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="19"/>
-      <c r="I721" s="20"/>
+      <c r="A721" s="18"/>
+      <c r="I721" s="19"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="19"/>
-      <c r="I722" s="20"/>
+      <c r="A722" s="18"/>
+      <c r="I722" s="19"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="19"/>
-      <c r="I723" s="20"/>
+      <c r="A723" s="18"/>
+      <c r="I723" s="19"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="19"/>
-      <c r="I724" s="20"/>
+      <c r="A724" s="18"/>
+      <c r="I724" s="19"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="19"/>
-      <c r="I725" s="20"/>
+      <c r="A725" s="18"/>
+      <c r="I725" s="19"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="19"/>
-      <c r="I726" s="20"/>
+      <c r="A726" s="18"/>
+      <c r="I726" s="19"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="19"/>
-      <c r="I727" s="20"/>
+      <c r="A727" s="18"/>
+      <c r="I727" s="19"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="19"/>
-      <c r="I728" s="20"/>
+      <c r="A728" s="18"/>
+      <c r="I728" s="19"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="19"/>
-      <c r="I729" s="20"/>
+      <c r="A729" s="18"/>
+      <c r="I729" s="19"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="19"/>
-      <c r="I730" s="20"/>
+      <c r="A730" s="18"/>
+      <c r="I730" s="19"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="19"/>
-      <c r="I731" s="20"/>
+      <c r="A731" s="18"/>
+      <c r="I731" s="19"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="19"/>
-      <c r="I732" s="20"/>
+      <c r="A732" s="18"/>
+      <c r="I732" s="19"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="19"/>
-      <c r="I733" s="20"/>
+      <c r="A733" s="18"/>
+      <c r="I733" s="19"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="19"/>
-      <c r="I734" s="20"/>
+      <c r="A734" s="18"/>
+      <c r="I734" s="19"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="19"/>
-      <c r="I735" s="20"/>
+      <c r="A735" s="18"/>
+      <c r="I735" s="19"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="19"/>
-      <c r="I736" s="20"/>
+      <c r="A736" s="18"/>
+      <c r="I736" s="19"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="19"/>
-      <c r="I737" s="20"/>
+      <c r="A737" s="18"/>
+      <c r="I737" s="19"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="19"/>
-      <c r="I738" s="20"/>
+      <c r="A738" s="18"/>
+      <c r="I738" s="19"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="19"/>
-      <c r="I739" s="20"/>
+      <c r="A739" s="18"/>
+      <c r="I739" s="19"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="19"/>
-      <c r="I740" s="20"/>
+      <c r="A740" s="18"/>
+      <c r="I740" s="19"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="19"/>
-      <c r="I741" s="20"/>
+      <c r="A741" s="18"/>
+      <c r="I741" s="19"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="19"/>
-      <c r="I742" s="20"/>
+      <c r="A742" s="18"/>
+      <c r="I742" s="19"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="19"/>
-      <c r="I743" s="20"/>
+      <c r="A743" s="18"/>
+      <c r="I743" s="19"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="19"/>
-      <c r="I744" s="20"/>
+      <c r="A744" s="18"/>
+      <c r="I744" s="19"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="19"/>
-      <c r="I745" s="20"/>
+      <c r="A745" s="18"/>
+      <c r="I745" s="19"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="19"/>
-      <c r="I746" s="20"/>
+      <c r="A746" s="18"/>
+      <c r="I746" s="19"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="19"/>
-      <c r="I747" s="20"/>
+      <c r="A747" s="18"/>
+      <c r="I747" s="19"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="19"/>
-      <c r="I748" s="20"/>
+      <c r="A748" s="18"/>
+      <c r="I748" s="19"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="19"/>
-      <c r="I749" s="20"/>
+      <c r="A749" s="18"/>
+      <c r="I749" s="19"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="19"/>
-      <c r="I750" s="20"/>
+      <c r="A750" s="18"/>
+      <c r="I750" s="19"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="19"/>
-      <c r="I751" s="20"/>
+      <c r="A751" s="18"/>
+      <c r="I751" s="19"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="19"/>
-      <c r="I752" s="20"/>
+      <c r="A752" s="18"/>
+      <c r="I752" s="19"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="19"/>
-      <c r="I753" s="20"/>
+      <c r="A753" s="18"/>
+      <c r="I753" s="19"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="19"/>
-      <c r="I754" s="20"/>
+      <c r="A754" s="18"/>
+      <c r="I754" s="19"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="19"/>
-      <c r="I755" s="20"/>
+      <c r="A755" s="18"/>
+      <c r="I755" s="19"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="19"/>
-      <c r="I756" s="20"/>
+      <c r="A756" s="18"/>
+      <c r="I756" s="19"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="19"/>
-      <c r="I757" s="20"/>
+      <c r="A757" s="18"/>
+      <c r="I757" s="19"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="19"/>
-      <c r="I758" s="20"/>
+      <c r="A758" s="18"/>
+      <c r="I758" s="19"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="19"/>
-      <c r="I759" s="20"/>
+      <c r="A759" s="18"/>
+      <c r="I759" s="19"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="19"/>
-      <c r="I760" s="20"/>
+      <c r="A760" s="18"/>
+      <c r="I760" s="19"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="19"/>
-      <c r="I761" s="20"/>
+      <c r="A761" s="18"/>
+      <c r="I761" s="19"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="19"/>
-      <c r="I762" s="20"/>
+      <c r="A762" s="18"/>
+      <c r="I762" s="19"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="19"/>
-      <c r="I763" s="20"/>
+      <c r="A763" s="18"/>
+      <c r="I763" s="19"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="19"/>
-      <c r="I764" s="20"/>
+      <c r="A764" s="18"/>
+      <c r="I764" s="19"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="19"/>
-      <c r="I765" s="20"/>
+      <c r="A765" s="18"/>
+      <c r="I765" s="19"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="19"/>
-      <c r="I766" s="20"/>
+      <c r="A766" s="18"/>
+      <c r="I766" s="19"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="19"/>
-      <c r="I767" s="20"/>
+      <c r="A767" s="18"/>
+      <c r="I767" s="19"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="19"/>
-      <c r="I768" s="20"/>
+      <c r="A768" s="18"/>
+      <c r="I768" s="19"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="19"/>
-      <c r="I769" s="20"/>
+      <c r="A769" s="18"/>
+      <c r="I769" s="19"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="19"/>
-      <c r="I770" s="20"/>
+      <c r="A770" s="18"/>
+      <c r="I770" s="19"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="19"/>
-      <c r="I771" s="20"/>
+      <c r="A771" s="18"/>
+      <c r="I771" s="19"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="19"/>
-      <c r="I772" s="20"/>
+      <c r="A772" s="18"/>
+      <c r="I772" s="19"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="19"/>
-      <c r="I773" s="20"/>
+      <c r="A773" s="18"/>
+      <c r="I773" s="19"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="19"/>
-      <c r="I774" s="20"/>
+      <c r="A774" s="18"/>
+      <c r="I774" s="19"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="19"/>
-      <c r="I775" s="20"/>
+      <c r="A775" s="18"/>
+      <c r="I775" s="19"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="19"/>
-      <c r="I776" s="20"/>
+      <c r="A776" s="18"/>
+      <c r="I776" s="19"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="19"/>
-      <c r="I777" s="20"/>
+      <c r="A777" s="18"/>
+      <c r="I777" s="19"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="19"/>
-      <c r="I778" s="20"/>
+      <c r="A778" s="18"/>
+      <c r="I778" s="19"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="19"/>
-      <c r="I779" s="20"/>
+      <c r="A779" s="18"/>
+      <c r="I779" s="19"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="19"/>
-      <c r="I780" s="20"/>
+      <c r="A780" s="18"/>
+      <c r="I780" s="19"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="19"/>
-      <c r="I781" s="20"/>
+      <c r="A781" s="18"/>
+      <c r="I781" s="19"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="19"/>
-      <c r="I782" s="20"/>
+      <c r="A782" s="18"/>
+      <c r="I782" s="19"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="19"/>
-      <c r="I783" s="20"/>
+      <c r="A783" s="18"/>
+      <c r="I783" s="19"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="19"/>
-      <c r="I784" s="20"/>
+      <c r="A784" s="18"/>
+      <c r="I784" s="19"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="19"/>
-      <c r="I785" s="20"/>
+      <c r="A785" s="18"/>
+      <c r="I785" s="19"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="19"/>
-      <c r="I786" s="20"/>
+      <c r="A786" s="18"/>
+      <c r="I786" s="19"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="19"/>
-      <c r="I787" s="20"/>
+      <c r="A787" s="18"/>
+      <c r="I787" s="19"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="19"/>
-      <c r="I788" s="20"/>
+      <c r="A788" s="18"/>
+      <c r="I788" s="19"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="19"/>
-      <c r="I789" s="20"/>
+      <c r="A789" s="18"/>
+      <c r="I789" s="19"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="19"/>
-      <c r="I790" s="20"/>
+      <c r="A790" s="18"/>
+      <c r="I790" s="19"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="19"/>
-      <c r="I791" s="20"/>
+      <c r="A791" s="18"/>
+      <c r="I791" s="19"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="19"/>
-      <c r="I792" s="20"/>
+      <c r="A792" s="18"/>
+      <c r="I792" s="19"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="19"/>
-      <c r="I793" s="20"/>
+      <c r="A793" s="18"/>
+      <c r="I793" s="19"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="19"/>
-      <c r="I794" s="20"/>
+      <c r="A794" s="18"/>
+      <c r="I794" s="19"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="19"/>
-      <c r="I795" s="20"/>
+      <c r="A795" s="18"/>
+      <c r="I795" s="19"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="19"/>
-      <c r="I796" s="20"/>
+      <c r="A796" s="18"/>
+      <c r="I796" s="19"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="19"/>
-      <c r="I797" s="20"/>
+      <c r="A797" s="18"/>
+      <c r="I797" s="19"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="19"/>
-      <c r="I798" s="20"/>
+      <c r="A798" s="18"/>
+      <c r="I798" s="19"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="19"/>
-      <c r="I799" s="20"/>
+      <c r="A799" s="18"/>
+      <c r="I799" s="19"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="19"/>
-      <c r="I800" s="20"/>
+      <c r="A800" s="18"/>
+      <c r="I800" s="19"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="19"/>
-      <c r="I801" s="20"/>
+      <c r="A801" s="18"/>
+      <c r="I801" s="19"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="19"/>
-      <c r="I802" s="20"/>
+      <c r="A802" s="18"/>
+      <c r="I802" s="19"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="19"/>
-      <c r="I803" s="20"/>
+      <c r="A803" s="18"/>
+      <c r="I803" s="19"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="19"/>
-      <c r="I804" s="20"/>
+      <c r="A804" s="18"/>
+      <c r="I804" s="19"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="19"/>
-      <c r="I805" s="20"/>
+      <c r="A805" s="18"/>
+      <c r="I805" s="19"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="19"/>
-      <c r="I806" s="20"/>
+      <c r="A806" s="18"/>
+      <c r="I806" s="19"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="19"/>
-      <c r="I807" s="20"/>
+      <c r="A807" s="18"/>
+      <c r="I807" s="19"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="19"/>
-      <c r="I808" s="20"/>
+      <c r="A808" s="18"/>
+      <c r="I808" s="19"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="19"/>
-      <c r="I809" s="20"/>
+      <c r="A809" s="18"/>
+      <c r="I809" s="19"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="19"/>
-      <c r="I810" s="20"/>
+      <c r="A810" s="18"/>
+      <c r="I810" s="19"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="19"/>
-      <c r="I811" s="20"/>
+      <c r="A811" s="18"/>
+      <c r="I811" s="19"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="19"/>
-      <c r="I812" s="20"/>
+      <c r="A812" s="18"/>
+      <c r="I812" s="19"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="19"/>
-      <c r="I813" s="20"/>
+      <c r="A813" s="18"/>
+      <c r="I813" s="19"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="19"/>
-      <c r="I814" s="20"/>
+      <c r="A814" s="18"/>
+      <c r="I814" s="19"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="19"/>
-      <c r="I815" s="20"/>
+      <c r="A815" s="18"/>
+      <c r="I815" s="19"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="19"/>
-      <c r="I816" s="20"/>
+      <c r="A816" s="18"/>
+      <c r="I816" s="19"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="19"/>
-      <c r="I817" s="20"/>
+      <c r="A817" s="18"/>
+      <c r="I817" s="19"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="19"/>
-      <c r="I818" s="20"/>
+      <c r="A818" s="18"/>
+      <c r="I818" s="19"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="19"/>
-      <c r="I819" s="20"/>
+      <c r="A819" s="18"/>
+      <c r="I819" s="19"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="19"/>
-      <c r="I820" s="20"/>
+      <c r="A820" s="18"/>
+      <c r="I820" s="19"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="19"/>
-      <c r="I821" s="20"/>
+      <c r="A821" s="18"/>
+      <c r="I821" s="19"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="19"/>
-      <c r="I822" s="20"/>
+      <c r="A822" s="18"/>
+      <c r="I822" s="19"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="19"/>
-      <c r="I823" s="20"/>
+      <c r="A823" s="18"/>
+      <c r="I823" s="19"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="19"/>
-      <c r="I824" s="20"/>
+      <c r="A824" s="18"/>
+      <c r="I824" s="19"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="19"/>
-      <c r="I825" s="20"/>
+      <c r="A825" s="18"/>
+      <c r="I825" s="19"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="19"/>
-      <c r="I826" s="20"/>
+      <c r="A826" s="18"/>
+      <c r="I826" s="19"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="19"/>
-      <c r="I827" s="20"/>
+      <c r="A827" s="18"/>
+      <c r="I827" s="19"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="19"/>
-      <c r="I828" s="20"/>
+      <c r="A828" s="18"/>
+      <c r="I828" s="19"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="19"/>
-      <c r="I829" s="20"/>
+      <c r="A829" s="18"/>
+      <c r="I829" s="19"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="19"/>
-      <c r="I830" s="20"/>
+      <c r="A830" s="18"/>
+      <c r="I830" s="19"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="19"/>
-      <c r="I831" s="20"/>
+      <c r="A831" s="18"/>
+      <c r="I831" s="19"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="19"/>
-      <c r="I832" s="20"/>
+      <c r="A832" s="18"/>
+      <c r="I832" s="19"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="19"/>
-      <c r="I833" s="20"/>
+      <c r="A833" s="18"/>
+      <c r="I833" s="19"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="19"/>
-      <c r="I834" s="20"/>
+      <c r="A834" s="18"/>
+      <c r="I834" s="19"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="19"/>
-      <c r="I835" s="20"/>
+      <c r="A835" s="18"/>
+      <c r="I835" s="19"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="19"/>
-      <c r="I836" s="20"/>
+      <c r="A836" s="18"/>
+      <c r="I836" s="19"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="19"/>
-      <c r="I837" s="20"/>
+      <c r="A837" s="18"/>
+      <c r="I837" s="19"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="19"/>
-      <c r="I838" s="20"/>
+      <c r="A838" s="18"/>
+      <c r="I838" s="19"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="19"/>
-      <c r="I839" s="20"/>
+      <c r="A839" s="18"/>
+      <c r="I839" s="19"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="19"/>
-      <c r="I840" s="20"/>
+      <c r="A840" s="18"/>
+      <c r="I840" s="19"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="19"/>
-      <c r="I841" s="20"/>
+      <c r="A841" s="18"/>
+      <c r="I841" s="19"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="19"/>
-      <c r="I842" s="20"/>
+      <c r="A842" s="18"/>
+      <c r="I842" s="19"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="19"/>
-      <c r="I843" s="20"/>
+      <c r="A843" s="18"/>
+      <c r="I843" s="19"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="19"/>
-      <c r="I844" s="20"/>
+      <c r="A844" s="18"/>
+      <c r="I844" s="19"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="19"/>
-      <c r="I845" s="20"/>
+      <c r="A845" s="18"/>
+      <c r="I845" s="19"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="19"/>
-      <c r="I846" s="20"/>
+      <c r="A846" s="18"/>
+      <c r="I846" s="19"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="19"/>
-      <c r="I847" s="20"/>
+      <c r="A847" s="18"/>
+      <c r="I847" s="19"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="19"/>
-      <c r="I848" s="20"/>
+      <c r="A848" s="18"/>
+      <c r="I848" s="19"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="19"/>
-      <c r="I849" s="20"/>
+      <c r="A849" s="18"/>
+      <c r="I849" s="19"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="19"/>
-      <c r="I850" s="20"/>
+      <c r="A850" s="18"/>
+      <c r="I850" s="19"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="19"/>
-      <c r="I851" s="20"/>
+      <c r="A851" s="18"/>
+      <c r="I851" s="19"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="19"/>
-      <c r="I852" s="20"/>
+      <c r="A852" s="18"/>
+      <c r="I852" s="19"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="19"/>
-      <c r="I853" s="20"/>
+      <c r="A853" s="18"/>
+      <c r="I853" s="19"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="19"/>
-      <c r="I854" s="20"/>
+      <c r="A854" s="18"/>
+      <c r="I854" s="19"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="19"/>
-      <c r="I855" s="20"/>
+      <c r="A855" s="18"/>
+      <c r="I855" s="19"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="19"/>
-      <c r="I856" s="20"/>
+      <c r="A856" s="18"/>
+      <c r="I856" s="19"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="19"/>
-      <c r="I857" s="20"/>
+      <c r="A857" s="18"/>
+      <c r="I857" s="19"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="19"/>
-      <c r="I858" s="20"/>
+      <c r="A858" s="18"/>
+      <c r="I858" s="19"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="19"/>
-      <c r="I859" s="20"/>
+      <c r="A859" s="18"/>
+      <c r="I859" s="19"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="19"/>
-      <c r="I860" s="20"/>
+      <c r="A860" s="18"/>
+      <c r="I860" s="19"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="19"/>
-      <c r="I861" s="20"/>
+      <c r="A861" s="18"/>
+      <c r="I861" s="19"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="19"/>
-      <c r="I862" s="20"/>
+      <c r="A862" s="18"/>
+      <c r="I862" s="19"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="19"/>
-      <c r="I863" s="20"/>
+      <c r="A863" s="18"/>
+      <c r="I863" s="19"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="19"/>
-      <c r="I864" s="20"/>
+      <c r="A864" s="18"/>
+      <c r="I864" s="19"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="19"/>
-      <c r="I865" s="20"/>
+      <c r="A865" s="18"/>
+      <c r="I865" s="19"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="19"/>
-      <c r="I866" s="20"/>
+      <c r="A866" s="18"/>
+      <c r="I866" s="19"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="19"/>
-      <c r="I867" s="20"/>
+      <c r="A867" s="18"/>
+      <c r="I867" s="19"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="19"/>
-      <c r="I868" s="20"/>
+      <c r="A868" s="18"/>
+      <c r="I868" s="19"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="19"/>
-      <c r="I869" s="20"/>
+      <c r="A869" s="18"/>
+      <c r="I869" s="19"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="19"/>
-      <c r="I870" s="20"/>
+      <c r="A870" s="18"/>
+      <c r="I870" s="19"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="19"/>
-      <c r="I871" s="20"/>
+      <c r="A871" s="18"/>
+      <c r="I871" s="19"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="19"/>
-      <c r="I872" s="20"/>
+      <c r="A872" s="18"/>
+      <c r="I872" s="19"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="19"/>
-      <c r="I873" s="20"/>
+      <c r="A873" s="18"/>
+      <c r="I873" s="19"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="19"/>
-      <c r="I874" s="20"/>
+      <c r="A874" s="18"/>
+      <c r="I874" s="19"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="19"/>
-      <c r="I875" s="20"/>
+      <c r="A875" s="18"/>
+      <c r="I875" s="19"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="19"/>
-      <c r="I876" s="20"/>
+      <c r="A876" s="18"/>
+      <c r="I876" s="19"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="19"/>
-      <c r="I877" s="20"/>
+      <c r="A877" s="18"/>
+      <c r="I877" s="19"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="19"/>
-      <c r="I878" s="20"/>
+      <c r="A878" s="18"/>
+      <c r="I878" s="19"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="19"/>
-      <c r="I879" s="20"/>
+      <c r="A879" s="18"/>
+      <c r="I879" s="19"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="19"/>
-      <c r="I880" s="20"/>
+      <c r="A880" s="18"/>
+      <c r="I880" s="19"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="19"/>
-      <c r="I881" s="20"/>
+      <c r="A881" s="18"/>
+      <c r="I881" s="19"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="19"/>
-      <c r="I882" s="20"/>
+      <c r="A882" s="18"/>
+      <c r="I882" s="19"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="19"/>
-      <c r="I883" s="20"/>
+      <c r="A883" s="18"/>
+      <c r="I883" s="19"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="19"/>
-      <c r="I884" s="20"/>
+      <c r="A884" s="18"/>
+      <c r="I884" s="19"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="19"/>
-      <c r="I885" s="20"/>
+      <c r="A885" s="18"/>
+      <c r="I885" s="19"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="19"/>
-      <c r="I886" s="20"/>
+      <c r="A886" s="18"/>
+      <c r="I886" s="19"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="19"/>
-      <c r="I887" s="20"/>
+      <c r="A887" s="18"/>
+      <c r="I887" s="19"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="19"/>
-      <c r="I888" s="20"/>
+      <c r="A888" s="18"/>
+      <c r="I888" s="19"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="19"/>
-      <c r="I889" s="20"/>
+      <c r="A889" s="18"/>
+      <c r="I889" s="19"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="19"/>
-      <c r="I890" s="20"/>
+      <c r="A890" s="18"/>
+      <c r="I890" s="19"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="19"/>
-      <c r="I891" s="20"/>
+      <c r="A891" s="18"/>
+      <c r="I891" s="19"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="19"/>
-      <c r="I892" s="20"/>
+      <c r="A892" s="18"/>
+      <c r="I892" s="19"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="19"/>
-      <c r="I893" s="20"/>
+      <c r="A893" s="18"/>
+      <c r="I893" s="19"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="19"/>
-      <c r="I894" s="20"/>
+      <c r="A894" s="18"/>
+      <c r="I894" s="19"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="19"/>
-      <c r="I895" s="20"/>
+      <c r="A895" s="18"/>
+      <c r="I895" s="19"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="19"/>
-      <c r="I896" s="20"/>
+      <c r="A896" s="18"/>
+      <c r="I896" s="19"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="19"/>
-      <c r="I897" s="20"/>
+      <c r="A897" s="18"/>
+      <c r="I897" s="19"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="19"/>
-      <c r="I898" s="20"/>
+      <c r="A898" s="18"/>
+      <c r="I898" s="19"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="19"/>
-      <c r="I899" s="20"/>
+      <c r="A899" s="18"/>
+      <c r="I899" s="19"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="19"/>
-      <c r="I900" s="20"/>
+      <c r="A900" s="18"/>
+      <c r="I900" s="19"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="19"/>
-      <c r="I901" s="20"/>
+      <c r="A901" s="18"/>
+      <c r="I901" s="19"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="19"/>
-      <c r="I902" s="20"/>
+      <c r="A902" s="18"/>
+      <c r="I902" s="19"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="19"/>
-      <c r="I903" s="20"/>
+      <c r="A903" s="18"/>
+      <c r="I903" s="19"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="19"/>
-      <c r="I904" s="20"/>
+      <c r="A904" s="18"/>
+      <c r="I904" s="19"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="19"/>
-      <c r="I905" s="20"/>
+      <c r="A905" s="18"/>
+      <c r="I905" s="19"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="19"/>
-      <c r="I906" s="20"/>
+      <c r="A906" s="18"/>
+      <c r="I906" s="19"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="19"/>
-      <c r="I907" s="20"/>
+      <c r="A907" s="18"/>
+      <c r="I907" s="19"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="19"/>
-      <c r="I908" s="20"/>
+      <c r="A908" s="18"/>
+      <c r="I908" s="19"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="19"/>
-      <c r="I909" s="20"/>
+      <c r="A909" s="18"/>
+      <c r="I909" s="19"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="19"/>
-      <c r="I910" s="20"/>
+      <c r="A910" s="18"/>
+      <c r="I910" s="19"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="19"/>
-      <c r="I911" s="20"/>
+      <c r="A911" s="18"/>
+      <c r="I911" s="19"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="19"/>
-      <c r="I912" s="20"/>
+      <c r="A912" s="18"/>
+      <c r="I912" s="19"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="19"/>
-      <c r="I913" s="20"/>
+      <c r="A913" s="18"/>
+      <c r="I913" s="19"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="19"/>
-      <c r="I914" s="20"/>
+      <c r="A914" s="18"/>
+      <c r="I914" s="19"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="19"/>
-      <c r="I915" s="20"/>
+      <c r="A915" s="18"/>
+      <c r="I915" s="19"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="19"/>
-      <c r="I916" s="20"/>
+      <c r="A916" s="18"/>
+      <c r="I916" s="19"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="19"/>
-      <c r="I917" s="20"/>
+      <c r="A917" s="18"/>
+      <c r="I917" s="19"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="19"/>
-      <c r="I918" s="20"/>
+      <c r="A918" s="18"/>
+      <c r="I918" s="19"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="19"/>
-      <c r="I919" s="20"/>
+      <c r="A919" s="18"/>
+      <c r="I919" s="19"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="19"/>
-      <c r="I920" s="20"/>
+      <c r="A920" s="18"/>
+      <c r="I920" s="19"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="19"/>
-      <c r="I921" s="20"/>
+      <c r="A921" s="18"/>
+      <c r="I921" s="19"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="19"/>
-      <c r="I922" s="20"/>
+      <c r="A922" s="18"/>
+      <c r="I922" s="19"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="19"/>
-      <c r="I923" s="20"/>
+      <c r="A923" s="18"/>
+      <c r="I923" s="19"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="19"/>
-      <c r="I924" s="20"/>
+      <c r="A924" s="18"/>
+      <c r="I924" s="19"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="19"/>
-      <c r="I925" s="20"/>
+      <c r="A925" s="18"/>
+      <c r="I925" s="19"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="19"/>
-      <c r="I926" s="20"/>
+      <c r="A926" s="18"/>
+      <c r="I926" s="19"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="19"/>
-      <c r="I927" s="20"/>
+      <c r="A927" s="18"/>
+      <c r="I927" s="19"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="19"/>
-      <c r="I928" s="20"/>
+      <c r="A928" s="18"/>
+      <c r="I928" s="19"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="19"/>
-      <c r="I929" s="20"/>
+      <c r="A929" s="18"/>
+      <c r="I929" s="19"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="19"/>
-      <c r="I930" s="20"/>
+      <c r="A930" s="18"/>
+      <c r="I930" s="19"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="19"/>
-      <c r="I931" s="20"/>
+      <c r="A931" s="18"/>
+      <c r="I931" s="19"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="19"/>
-      <c r="I932" s="20"/>
+      <c r="A932" s="18"/>
+      <c r="I932" s="19"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="19"/>
-      <c r="I933" s="20"/>
+      <c r="A933" s="18"/>
+      <c r="I933" s="19"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="19"/>
-      <c r="I934" s="20"/>
+      <c r="A934" s="18"/>
+      <c r="I934" s="19"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="19"/>
-      <c r="I935" s="20"/>
+      <c r="A935" s="18"/>
+      <c r="I935" s="19"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="19"/>
-      <c r="I936" s="20"/>
+      <c r="A936" s="18"/>
+      <c r="I936" s="19"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="19"/>
-      <c r="I937" s="20"/>
+      <c r="A937" s="18"/>
+      <c r="I937" s="19"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="19"/>
-      <c r="I938" s="20"/>
+      <c r="A938" s="18"/>
+      <c r="I938" s="19"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="19"/>
-      <c r="I939" s="20"/>
+      <c r="A939" s="18"/>
+      <c r="I939" s="19"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="19"/>
-      <c r="I940" s="20"/>
+      <c r="A940" s="18"/>
+      <c r="I940" s="19"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="19"/>
-      <c r="I941" s="20"/>
+      <c r="A941" s="18"/>
+      <c r="I941" s="19"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="19"/>
-      <c r="I942" s="20"/>
+      <c r="A942" s="18"/>
+      <c r="I942" s="19"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="19"/>
-      <c r="I943" s="20"/>
+      <c r="A943" s="18"/>
+      <c r="I943" s="19"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="19"/>
-      <c r="I944" s="20"/>
+      <c r="A944" s="18"/>
+      <c r="I944" s="19"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="19"/>
-      <c r="I945" s="20"/>
+      <c r="A945" s="18"/>
+      <c r="I945" s="19"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="19"/>
-      <c r="I946" s="20"/>
+      <c r="A946" s="18"/>
+      <c r="I946" s="19"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="19"/>
-      <c r="I947" s="20"/>
+      <c r="A947" s="18"/>
+      <c r="I947" s="19"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="19"/>
-      <c r="I948" s="20"/>
+      <c r="A948" s="18"/>
+      <c r="I948" s="19"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="19"/>
-      <c r="I949" s="20"/>
+      <c r="A949" s="18"/>
+      <c r="I949" s="19"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="19"/>
-      <c r="I950" s="20"/>
+      <c r="A950" s="18"/>
+      <c r="I950" s="19"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="19"/>
-      <c r="I951" s="20"/>
+      <c r="A951" s="18"/>
+      <c r="I951" s="19"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="19"/>
-      <c r="I952" s="20"/>
+      <c r="A952" s="18"/>
+      <c r="I952" s="19"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="19"/>
-      <c r="I953" s="20"/>
+      <c r="A953" s="18"/>
+      <c r="I953" s="19"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="19"/>
-      <c r="I954" s="20"/>
+      <c r="A954" s="18"/>
+      <c r="I954" s="19"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="19"/>
-      <c r="I955" s="20"/>
+      <c r="A955" s="18"/>
+      <c r="I955" s="19"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="19"/>
-      <c r="I956" s="20"/>
+      <c r="A956" s="18"/>
+      <c r="I956" s="19"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="19"/>
-      <c r="I957" s="20"/>
+      <c r="A957" s="18"/>
+      <c r="I957" s="19"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="19"/>
-      <c r="I958" s="20"/>
+      <c r="A958" s="18"/>
+      <c r="I958" s="19"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="19"/>
-      <c r="I959" s="20"/>
+      <c r="A959" s="18"/>
+      <c r="I959" s="19"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="19"/>
-      <c r="I960" s="20"/>
+      <c r="A960" s="18"/>
+      <c r="I960" s="19"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="19"/>
-      <c r="I961" s="20"/>
+      <c r="A961" s="18"/>
+      <c r="I961" s="19"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="19"/>
-      <c r="I962" s="20"/>
+      <c r="A962" s="18"/>
+      <c r="I962" s="19"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="19"/>
-      <c r="I963" s="20"/>
+      <c r="A963" s="18"/>
+      <c r="I963" s="19"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="19"/>
-      <c r="I964" s="20"/>
+      <c r="A964" s="18"/>
+      <c r="I964" s="19"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="19"/>
-      <c r="I965" s="20"/>
+      <c r="A965" s="18"/>
+      <c r="I965" s="19"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="19"/>
-      <c r="I966" s="20"/>
+      <c r="A966" s="18"/>
+      <c r="I966" s="19"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="19"/>
-      <c r="I967" s="20"/>
+      <c r="A967" s="18"/>
+      <c r="I967" s="19"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="19"/>
-      <c r="I968" s="20"/>
+      <c r="A968" s="18"/>
+      <c r="I968" s="19"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="19"/>
-      <c r="I969" s="20"/>
+      <c r="A969" s="18"/>
+      <c r="I969" s="19"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="19"/>
-      <c r="I970" s="20"/>
+      <c r="A970" s="18"/>
+      <c r="I970" s="19"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="19"/>
-      <c r="I971" s="20"/>
+      <c r="A971" s="18"/>
+      <c r="I971" s="19"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="19"/>
-      <c r="I972" s="20"/>
+      <c r="A972" s="18"/>
+      <c r="I972" s="19"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="19"/>
-      <c r="I973" s="20"/>
+      <c r="A973" s="18"/>
+      <c r="I973" s="19"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="19"/>
-      <c r="I974" s="20"/>
+      <c r="A974" s="18"/>
+      <c r="I974" s="19"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="19"/>
-      <c r="I975" s="20"/>
+      <c r="A975" s="18"/>
+      <c r="I975" s="19"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="19"/>
-      <c r="I976" s="20"/>
+      <c r="A976" s="18"/>
+      <c r="I976" s="19"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="19"/>
-      <c r="I977" s="20"/>
+      <c r="A977" s="18"/>
+      <c r="I977" s="19"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="19"/>
-      <c r="I978" s="20"/>
+      <c r="A978" s="18"/>
+      <c r="I978" s="19"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="19"/>
-      <c r="I979" s="20"/>
+      <c r="A979" s="18"/>
+      <c r="I979" s="19"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="19"/>
-      <c r="I980" s="20"/>
+      <c r="A980" s="18"/>
+      <c r="I980" s="19"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="19"/>
-      <c r="I981" s="20"/>
+      <c r="A981" s="18"/>
+      <c r="I981" s="19"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="19"/>
-      <c r="I982" s="20"/>
+      <c r="A982" s="18"/>
+      <c r="I982" s="19"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="19"/>
-      <c r="I983" s="20"/>
+      <c r="A983" s="18"/>
+      <c r="I983" s="19"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="19"/>
-      <c r="I984" s="20"/>
+      <c r="A984" s="18"/>
+      <c r="I984" s="19"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="19"/>
-      <c r="I985" s="20"/>
+      <c r="A985" s="18"/>
+      <c r="I985" s="19"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="19"/>
-      <c r="I986" s="20"/>
+      <c r="A986" s="18"/>
+      <c r="I986" s="19"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="19"/>
-      <c r="I987" s="20"/>
+      <c r="A987" s="18"/>
+      <c r="I987" s="19"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="19"/>
-      <c r="I988" s="20"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="19"/>
-      <c r="I989" s="20"/>
+      <c r="A988" s="18"/>
+      <c r="I988" s="19"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="18"/>
+      <c r="I989" s="19"/>
     </row>
     <row r="990">
-      <c r="A990" s="19"/>
-      <c r="I990" s="20"/>
+      <c r="A990" s="18"/>
+      <c r="I990" s="19"/>
     </row>
     <row r="991">
-      <c r="A991" s="19"/>
-      <c r="I991" s="20"/>
+      <c r="A991" s="18"/>
+      <c r="I991" s="19"/>
     </row>
     <row r="992">
-      <c r="A992" s="19"/>
-      <c r="I992" s="20"/>
+      <c r="A992" s="18"/>
+      <c r="I992" s="19"/>
     </row>
     <row r="993">
-      <c r="A993" s="19"/>
-      <c r="I993" s="20"/>
+      <c r="A993" s="18"/>
+      <c r="I993" s="19"/>
     </row>
     <row r="994">
-      <c r="A994" s="19"/>
-      <c r="I994" s="20"/>
+      <c r="A994" s="18"/>
+      <c r="I994" s="19"/>
     </row>
     <row r="995">
-      <c r="A995" s="19"/>
-      <c r="I995" s="20"/>
+      <c r="A995" s="18"/>
+      <c r="I995" s="19"/>
     </row>
     <row r="996">
-      <c r="A996" s="19"/>
-      <c r="I996" s="20"/>
+      <c r="A996" s="18"/>
+      <c r="I996" s="19"/>
     </row>
     <row r="997">
-      <c r="A997" s="19"/>
-      <c r="I997" s="20"/>
+      <c r="A997" s="18"/>
+      <c r="I997" s="19"/>
     </row>
     <row r="998">
-      <c r="A998" s="19"/>
-      <c r="I998" s="20"/>
+      <c r="A998" s="18"/>
+      <c r="I998" s="19"/>
     </row>
     <row r="999">
-      <c r="A999" s="19"/>
-      <c r="I999" s="20"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="19"/>
-      <c r="I1000" s="20"/>
+      <c r="A999" s="18"/>
+      <c r="I999" s="19"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/TNR_PREJDD/RO/PREJDD.RO.CAT.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.CAT.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mirWVt35iVDrayk20e6EPDK592+bA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgP6DcjQqJFa3kE5o3wH+NEEBH7VQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -73,67 +73,115 @@
     <t>RO.ACT.001.CRE.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.001.CRE.01</t>
+  </si>
+  <si>
     <t>TNR</t>
   </si>
   <si>
     <t>RO.ACT.001.LEC.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.001.LEC.01</t>
+  </si>
+  <si>
     <t>RO.ACT.001.MAJ.01</t>
   </si>
   <si>
-    <t>UPD.RO.ACT.001.MAJ.01</t>
+    <t>CAT.RO.ACT.001.MAJ.01</t>
   </si>
   <si>
-    <t>upd.RO.ACT.001.MAJ.01</t>
+    <t>CAT.UPD.RO.ACT.001.MAJ.01</t>
   </si>
   <si>
     <t>RO.ACT.001.REC.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.001.REC.01</t>
+  </si>
+  <si>
     <t>RO.ACT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.001.SUP.01</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRA.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.003HAB.SRA.01</t>
+  </si>
+  <si>
     <t>RO.ACT.003HAB.SRM.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.003HAB.SRM.01</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRS.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.003HAB.SRS.01</t>
+  </si>
+  <si>
     <t>RO.ACT.003MET.SRA.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.003MET.SRA.01</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRM.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.003MET.SRM.01</t>
+  </si>
+  <si>
     <t>RO.ACT.003MET.SRS.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.003MET.SRS.01</t>
   </si>
   <si>
     <t>RO.ACT.004EMP.SRA.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.004EMP.SRA.01</t>
+  </si>
+  <si>
     <t>RO.ACT.004EMP.SRM.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.004EMP.SRM.01</t>
   </si>
   <si>
     <t>RO.ACT.004EMP.SRS.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.004EMP.SRS.01</t>
+  </si>
+  <si>
     <t>RO.ACT.005.FON.01</t>
   </si>
   <si>
-    <t>RO.ACT.005.FON.01.SRC</t>
+    <t>CAT.RO.ACT.005.FON.01.SRC</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRL.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
     <t>RO.ACT.003MET.SRL.01</t>
   </si>
   <si>
+    <t>CAT.RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
     <t>RO.ACT.004EMP.SRL.01</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.004EMP.SRL.01</t>
   </si>
 </sst>
 </file>
@@ -260,7 +308,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -272,10 +320,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1692,10 +1740,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10">
         <v>100.0</v>
@@ -1713,18 +1761,18 @@
         <v>500.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
         <v>110.0</v>
@@ -1742,18 +1790,18 @@
         <v>510.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10">
         <v>120.0</v>
@@ -1771,18 +1819,18 @@
         <v>520.0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10">
         <v>10.0</v>
@@ -1800,18 +1848,18 @@
         <v>10.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10">
         <v>150.0</v>
@@ -1829,18 +1877,18 @@
         <v>550.0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10">
         <v>160.0</v>
@@ -1858,18 +1906,18 @@
         <v>560.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
         <v>170.0</v>
@@ -1887,18 +1935,18 @@
         <v>570.0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10">
         <v>180.0</v>
@@ -1916,18 +1964,18 @@
         <v>580.0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10">
         <v>190.0</v>
@@ -1945,18 +1993,18 @@
         <v>590.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10">
         <v>200.0</v>
@@ -1974,18 +2022,18 @@
         <v>600.0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10">
         <v>210.0</v>
@@ -2003,18 +2051,18 @@
         <v>610.0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10">
         <v>220.0</v>
@@ -2032,18 +2080,18 @@
         <v>620.0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10">
         <v>230.0</v>
@@ -2061,18 +2109,18 @@
         <v>630.0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10">
         <v>240.0</v>
@@ -2090,18 +2138,18 @@
         <v>640.0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D16" s="10">
         <v>250.0</v>
@@ -2119,18 +2167,18 @@
         <v>650.0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D17" s="10">
         <v>270.0</v>
@@ -2148,18 +2196,18 @@
         <v>670.0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10">
         <v>280.0</v>
@@ -2177,18 +2225,18 @@
         <v>680.0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D19" s="10">
         <v>290.0</v>
@@ -2206,18 +2254,18 @@
         <v>690.0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D20" s="10">
         <v>300.0</v>
@@ -2235,7 +2283,7 @@
         <v>700.0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
